--- a/DATA/PARTITE_dataset/matches_dataset_data.xlsx
+++ b/DATA/PARTITE_dataset/matches_dataset_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>SEGNO</t>
   </si>
@@ -701,6 +701,141 @@
   </si>
   <si>
     <t>F_PAIRE_HUMBERT_3_AUCKLAND_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GERASIMOV_MILOJEVIC_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_VESELY_CARUSO_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DUCKWORTH_DANIEL_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SUGITA_TROICKI_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KWON_GUNNESWARAN_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_IVASHKA_TRAVAGLIA_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_STEBE_BERANKIS_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_PAIRE_MARCORA_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_VESELY_IVASHKA_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MARCORA_DUCKWORTH_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KWON_GERASIMOV_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SUGITA_BERANKIS_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_GERASIMOV_DUCKWORTH_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_VESELY_BERANKIS_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_GERASIMOV_VESELY_3_PUNE_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOMBOS_RUUSUVUORI_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_LOPEZ_GASQUET_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_YMER_KRAJINOVIC_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALIASSIME_HERBERT_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DIMITROV_BARRERE_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SHAPOVALOV_POSPISIL_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOFFIN_BUBLIK_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MONFILS_MANNARINO_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_GASQUET_POSPISIL_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BARRERE_KRAJINOVIC_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_GOFFIN_HERBERT_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_GOMBOS_MONFILS_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_POSPISIL_GOFFIN_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_MONFILS_KRAJINOVIC_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_MONFILS_POSPISIL_3_MONTPELLIER_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_POSPISIL_KRAJINOVIC_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KHACHANOV_EVANS_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALIASSIME_DIMITROV_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BUBLIK_RUBLEV_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BAUTISTA_CARRENO_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SINNER_GOFFIN_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MONFILS_SIMON_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BEDENE_TSITSIPAS_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_CARRENO_SINNER_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BEDENE_ALIASSIME_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KRAJINOVIC_RUBLEV_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_EVANS_MONFILS_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_CARRENO_ALIASSIME_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_MONFILS_KRAJINOVIC_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_MONFILS_ALIASSIME_3_ROTTERDAM_2020_HARD</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4903,6 +5038,771 @@
         <v>35</v>
       </c>
     </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250">
+        <v>4</v>
+      </c>
+      <c r="C250">
+        <v>2</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+      <c r="C251">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/PARTITE_dataset/matches_dataset_data.xlsx
+++ b/DATA/PARTITE_dataset/matches_dataset_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>SEGNO</t>
   </si>
@@ -28,454 +28,454 @@
     <t>GAMES</t>
   </si>
   <si>
-    <t>QUIROZ_KARLOVIC_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>FRATANGELO_TIAFOE_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>MAGER_QUERREY_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>KORDA_PAUL_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>HURKACZ_GALAN_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>MANNARINO_NORRIE_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>MONTEIRO_ISNER_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>HARRISON_GARIN_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>HARRISON_MAGER_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>NORRIE_TIAFOE_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>QUIROZ_HURKACZ_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>ISNER_KORDA_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>NORRIE_KORDA_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>HURKACZ_HARRISON_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>HURKACZ_KORDA_3_DELRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>TRAVAGLIA_RUUSUVUORI_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>LAMASINE_BUBLIK_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>CELIKBILEK_BASILASHVILI_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>STRUFF_GRENIER_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>DeMINAUR_ANDREEV_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>FOGNINI_CHARDY_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>GOFFIN_KUHN_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>BERRETTINI_KUZMANOV_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>STRUFF_CHARDY_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>BASILASHVILI_DeMINAUR_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>GOFFIN_TRAVAGLIA_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>BUBLIK_BERRETTINI_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>BUBLIK_CHARDY_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>GOFFIN_DeMINAUR_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>BUBLIK_DeMINAUR_3_ANTALYA_2021_HARD</t>
-  </si>
-  <si>
-    <t>MONTEIRO_ALCARAZ_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>THOMPSON_VilellaMARTINEZ_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>BUBLIK_TRAVAGLIA_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>CARUSO_KECMANOVIC_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>VandeZANDSCHULP_OPELKA_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>BEDENE_SINNER_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>CUEVAS_HURKACZ_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>ANDERSON_KHACHANOV_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>MONTEIRO_THOMPSON_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>SINNER_KECMANOVIC_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>HURKACZ_TRAVAGLIA_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>KHACHANOV_VandeZANDSCHULP_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>TRAVAGLIA_MONTEIRO_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>KHACHANOV_SINNER_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>SINNER_TRAVAGLIA_3_GreatOCEAN_2021_HARD</t>
-  </si>
-  <si>
-    <t>VESELY_BERANKIS_3_MurrayRIVER_2021_HARD</t>
-  </si>
-  <si>
-    <t>DUCKWORTH_MOUTET_3_MurrayRIVER_2021_HARD</t>
-  </si>
-  <si>
-    <t>GIRON_EVANS_3_MurrayRIVER_2021_HARD</t>
-  </si>
-  <si>
-    <t>FRITZ_CHARDY_3_MurrayRIVER_2021_HARD</t>
-  </si>
-  <si>
-    <t>CORIC_KYRGIOS_3_MurrayRIVER_2021_HARD</t>
-  </si>
-  <si>
-    <t>GERASIMOV_ALIASSIME_3_RiverMURRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>DIMITROV_POPYRIN_3_RiverMURRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>BOLT_WAWRINKA_3_RiverMURRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>EVANS_CORIC_3_RiverMURRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>ALIASSIME_VESELY_3_RiverMURRAY_2021_HARD</t>
-  </si>
-  <si>
-    <t>DIMITROV_MOUTET_3_MurrayRIVER_2021_HARD</t>
-  </si>
-  <si>
-    <t>WAWRINKA_CHARDY_3_MurrayRIVER_2021_HARD</t>
-  </si>
-  <si>
-    <t>EVANS_CHARDY_3_MurrayRIVER_2021_HARD</t>
-  </si>
-  <si>
-    <t>MOUTET_ALIASSIME_3_MurrayRIVER_2021_HARD</t>
-  </si>
-  <si>
-    <t>ALIASSIME_EVANS_3_MurrayRIVER_2021_HARD</t>
-  </si>
-  <si>
-    <t>ANDREEV_POPYRIN_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>UCHIYAMA_KWON_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>ALBOT_HANFMANN_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>CRESSY_NISHIOKA_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>BUBLIK_CELIKBILEK_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>DANIEL_CILIC_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>EBDEN_MILLMAN_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>MANNARINO_MARCORA_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>POPYRIN_EBDEN_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>NISHIOKA_BUBLIK_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>CILIC_KWON_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>MANNARINO_ALBOT_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>BUBLIK_ALBOT_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>CILIC_POPYRIN_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>POPYRIN_BUBLIK_3_SINGAPORE_2021_HARD</t>
-  </si>
-  <si>
-    <t>GOJOWCZYK_VESELY_3_MONTPELLER_2021_HARD</t>
-  </si>
-  <si>
-    <t>GERASIMOV_BEDENE_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>SONEGO_KORDA_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>GRIEKSPOOR_HUMBERT_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>FOKINA_HURKACZ_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>LAJOVIC_NOVAK_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>BONZI_GOFFIN_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>BAUTISTA_BARRERE_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>GOJOWCZYK_NOVAK_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>FOKINA_GERASIMOV_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>GOFFIN_SONEGO_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>BAUTISTA_HUMBERT_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>GERASIMOV_GOFFIN_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>GOJOWCZYK_BAUTISTA_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>GOFFIN_BAUTISTA_3_MONTPELLIER_2021_HARD</t>
-  </si>
-  <si>
-    <t>PAUL_BUBLIK_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>NISHIKORI_DeMINAUR_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>NORRIE_KHACHANOV_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>FOKINA_FUCSOVICS_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>LAJOVIC_CORIC_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>CHARDY_GOFFIN_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>MURRAY_RUBLEV_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>TSITSIPAS_HURKACZ_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>FUCSOVICS_PAUL_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>NISHIKORI_CORIC_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>RUBLEV_CHARDY_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>TSITSIPAS_KHACHANOV_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>CORIC_FUCSOVICS_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>RUBLEV_TSITSIPAS_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>FUCSOVICS_RUBLEV_3_ROTTERDAM_2021_HARD</t>
-  </si>
-  <si>
-    <t>HARRIS_FUCSOVICS_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>BASILASHVILI_JAZIRI_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>GOFFIN_FRITZ_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>BAUTISTA_BUBLIK_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>SHAPOVALOV_POSPISIL_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>GASQUET_RUBLEV_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>FEDERER_EVANS_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>THIEM_KARATSEV_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>SHAPOVALOV_FRITZ_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>RUBLEV_FUCSOVICS_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>BASILASHVILI_FEDERER_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>BAUTISTA_THIEM_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>FRITZ_BASILASHVILI_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>BAUTISTA_RUBLEV_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>BAUTISTA_BASILASHVILI_3_DOHA_2021_HARD</t>
-  </si>
-  <si>
-    <t>HERBERT_NORRIE_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>RUUSUVUORI_EBDEN_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>FOKINA_RINDERKNECH_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>SINNER_GASTON_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>HUMBERT_TSONGA_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>KHACHANOV_McDONALD_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>POUILLE_TSITSIPAS_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>MEDVEDEV_GERASIMOV_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>RINDERKNECH_HUMBERT_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>EBDEN_KHACHANOV_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>HERBERT_TSITSIPAS_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>SINNER_MEDVEDEV_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>HERBERT_HUMBERT_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>MEDVEDEV_EBDEN_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>MEDVEDEV_HERBERT_3_MARSIGLIA_2021_HARD</t>
-  </si>
-  <si>
-    <t>NISHIKORI_BEDENE_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>SONEGO_KARATSEV_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>KRAJINOVIC_HARRIS_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>FUCSOVICS_LAJOVIC_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>CHARDY_KHACHANOV_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>BAUTISTA_SINNER_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>SHAPOVALOV_HURKACZ_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>RUBLEV_FRITZ_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>HARRIS_NISHIKORI_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>KARATSEV_SINNER_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>CHARDY_SHAPOVALOV_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>RUBLEV_FUCSOVICS_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>HARRIS_SHAPOVALOV_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>RUBLEV_KARATSEV_3_DUBAI_2021_HARD</t>
-  </si>
-  <si>
-    <t>KARATSEV_HARRIS_3_DUBAI_2021_HARD</t>
+    <t>OTT_QUIROZ_KARLOVIC_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FRATANGELO_TIAFOE_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MAGER_QUERREY_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KORDA_PAUL_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HURKACZ_GALAN_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MANNARINO_NORRIE_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MONTEIRO_ISNER_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HARRISON_GARIN_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_HARRISON_MAGER_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_NORRIE_TIAFOE_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_QUIROZ_HURKACZ_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ISNER_KORDA_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_NORRIE_KORDA_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_HURKACZ_HARRISON_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>F_HURKACZ_KORDA_3_DELRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TRAVAGLIA_RUUSUVUORI_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_LAMASINE_BUBLIK_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CELIKBILEK_BASILASHVILI_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_STRUFF_GRENIER_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DeMINAUR_ANDREEV_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FOGNINI_CHARDY_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOFFIN_KUHN_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BERRETTINI_KUZMANOV_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_STRUFF_CHARDY_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BASILASHVILI_DeMINAUR_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_GOFFIN_TRAVAGLIA_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BUBLIK_BERRETTINI_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_BUBLIK_CHARDY_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_GOFFIN_DeMINAUR_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>F_BUBLIK_DeMINAUR_3_ANTALYA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MONTEIRO_ALCARAZ_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_THOMPSON_VilellaMARTINEZ_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BUBLIK_TRAVAGLIA_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CARUSO_KECMANOVIC_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_VandeZANDSCHULP_OPELKA_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BEDENE_SINNER_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CUEVAS_HURKACZ_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ANDERSON_KHACHANOV_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MONTEIRO_THOMPSON_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SINNER_KECMANOVIC_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_HURKACZ_TRAVAGLIA_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KHACHANOV_VandeZANDSCHULP_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_TRAVAGLIA_MONTEIRO_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_KHACHANOV_SINNER_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>F_SINNER_TRAVAGLIA_3_GreatOCEAN_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_VESELY_BERANKIS_3_MurrayRIVER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DUCKWORTH_MOUTET_3_MurrayRIVER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GIRON_EVANS_3_MurrayRIVER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FRITZ_CHARDY_3_MurrayRIVER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CORIC_KYRGIOS_3_MurrayRIVER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GERASIMOV_ALIASSIME_3_RiverMURRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DIMITROV_POPYRIN_3_RiverMURRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BOLT_WAWRINKA_3_RiverMURRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_EVANS_CORIC_3_RiverMURRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ALIASSIME_VESELY_3_RiverMURRAY_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DIMITROV_MOUTET_3_MurrayRIVER_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_WAWRINKA_CHARDY_3_MurrayRIVER_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_EVANS_CHARDY_3_MurrayRIVER_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_MOUTET_ALIASSIME_3_MurrayRIVER_2021_HARD</t>
+  </si>
+  <si>
+    <t>F_ALIASSIME_EVANS_3_MurrayRIVER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ANDREEV_POPYRIN_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_UCHIYAMA_KWON_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALBOT_HANFMANN_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CRESSY_NISHIOKA_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BUBLIK_CELIKBILEK_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DANIEL_CILIC_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_EBDEN_MILLMAN_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MANNARINO_MARCORA_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_POPYRIN_EBDEN_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_NISHIOKA_BUBLIK_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_CILIC_KWON_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MANNARINO_ALBOT_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_BUBLIK_ALBOT_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_CILIC_POPYRIN_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>F_POPYRIN_BUBLIK_3_SINGAPORE_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOJOWCZYK_VESELY_3_MONTPELLER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GERASIMOV_BEDENE_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SONEGO_KORDA_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GRIEKSPOOR_HUMBERT_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FOKINA_HURKACZ_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_LAJOVIC_NOVAK_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BONZI_GOFFIN_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BAUTISTA_BARRERE_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_GOJOWCZYK_NOVAK_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_FOKINA_GERASIMOV_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_GOFFIN_SONEGO_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BAUTISTA_HUMBERT_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_GERASIMOV_GOFFIN_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_GOJOWCZYK_BAUTISTA_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>F_GOFFIN_BAUTISTA_3_MONTPELLIER_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_PAUL_BUBLIK_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NISHIKORI_DeMINAUR_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NORRIE_KHACHANOV_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FOKINA_FUCSOVICS_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_LAJOVIC_CORIC_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CHARDY_GOFFIN_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MURRAY_RUBLEV_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TSITSIPAS_HURKACZ_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_FUCSOVICS_PAUL_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_NISHIKORI_CORIC_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_RUBLEV_CHARDY_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_TSITSIPAS_KHACHANOV_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_CORIC_FUCSOVICS_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_RUBLEV_TSITSIPAS_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>F_FUCSOVICS_RUBLEV_3_ROTTERDAM_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HARRIS_FUCSOVICS_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BASILASHVILI_JAZIRI_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOFFIN_FRITZ_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BAUTISTA_BUBLIK_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SHAPOVALOV_POSPISIL_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GASQUET_RUBLEV_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FEDERER_EVANS_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_THIEM_KARATSEV_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SHAPOVALOV_FRITZ_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_RUBLEV_FUCSOVICS_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BASILASHVILI_FEDERER_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BAUTISTA_THIEM_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_FRITZ_BASILASHVILI_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_BAUTISTA_RUBLEV_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>F_BAUTISTA_BASILASHVILI_3_DOHA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HERBERT_NORRIE_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_RUUSUVUORI_EBDEN_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FOKINA_RINDERKNECH_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SINNER_GASTON_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HUMBERT_TSONGA_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KHACHANOV_McDONALD_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_POUILLE_TSITSIPAS_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MEDVEDEV_GERASIMOV_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_RINDERKNECH_HUMBERT_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_EBDEN_KHACHANOV_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_HERBERT_TSITSIPAS_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SINNER_MEDVEDEV_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_HERBERT_HUMBERT_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_MEDVEDEV_EBDEN_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>F_MEDVEDEV_HERBERT_3_MARSIGLIA_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NISHIKORI_BEDENE_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SONEGO_KARATSEV_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KRAJINOVIC_HARRIS_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FUCSOVICS_LAJOVIC_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CHARDY_KHACHANOV_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BAUTISTA_SINNER_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SHAPOVALOV_HURKACZ_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>OTT_RUBLEV_FRITZ_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_HARRIS_NISHIKORI_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KARATSEV_SINNER_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_CHARDY_SHAPOVALOV_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>QRT_RUBLEV_FUCSOVICS_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_HARRIS_SHAPOVALOV_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>SF_RUBLEV_KARATSEV_3_DUBAI_2021_HARD</t>
+  </si>
+  <si>
+    <t>F_KARATSEV_HARRIS_3_DUBAI_2021_HARD</t>
   </si>
   <si>
     <t>OTT_MUSETTI_TIAFOE_3_ACAPULCO_2021_HARD</t>
@@ -836,6 +836,141 @@
   </si>
   <si>
     <t>F_MONFILS_ALIASSIME_3_ROTTERDAM_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SEPPI_JOHNSON_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KOEPFER_EDMUND_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NORRIE_JUNG_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KECMANOVIC_LORENZI_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HUMBERT_GIRON_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_OPELKA_NISHIOKA_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_RAONIC_KWON_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_THOMPSON_ISNER_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SEPPI_THOMPSON_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_EDMUND_KWON_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KECMANOVIC_HUMBERT_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_OPELKA_JUNG_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_SEPPI_JUNG_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_KECMANOVIC_EDMUND_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_SEPPI_EDMUND_3_NewYORK_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SIMON_BEDENE_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_POSPISIL_HURKACZ_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALIASSIME_HERBERT_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_PAIRE_BUBLIK_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CILIC_SHAPOVALOV_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GERASIMOV_GOFFIN_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_YMER_TSITSIPAS_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MEDVEDEV_SINNER_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ALIASSIME_GERASIMOV_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BUBLIK_SHAPOVALOV_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_TSITSIPAS_POSPISIL_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SIMON_MEDVEDEV_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_ALIASSIME_SIMON_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_TSITSIPAS_BUBLIK_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_ALIASSIME_TSITSIPAS_3_MARSIGLIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TIAFOE_PAUL_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NISHIOKA_RUBIN_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NORRIE_NAKASHIMA_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KWON_HARRISON_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SOCK_JOHNSON_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KECMANOVIC_HUMBERT_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_OPELKA_McDONALD_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_STEBE_RAONIC_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_NAKASHIMA_NISHIOKA_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_TIAFOE_HUMBERT_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_OPELKA_KWON_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_JOHNSON_RAONIC_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_NISHIOKA_HUMBERT_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_OPELKA_RAONIC_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_NISHIOKA_OPELKA_3_DELRAY_2020_HARD</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E271"/>
+  <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5803,6 +5938,771 @@
         <v>18</v>
       </c>
     </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>2</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+      <c r="C278">
+        <v>3</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>3</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>3</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290">
+        <v>3</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>3</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>3</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>2</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>3</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+      <c r="E305">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <v>3</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>2</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310">
+        <v>2</v>
+      </c>
+      <c r="C310">
+        <v>3</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+      <c r="E313">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>3</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>3</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+      <c r="C316">
+        <v>3</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/PARTITE_dataset/matches_dataset_data.xlsx
+++ b/DATA/PARTITE_dataset/matches_dataset_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
   <si>
     <t>SEGNO</t>
   </si>
@@ -971,6 +971,141 @@
   </si>
   <si>
     <t>F_NISHIOKA_OPELKA_3_DELRAY_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_STRUFF_BASILASHVILI_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_EVANS_HERBERT_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GASQUET_PAIRE_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NOVAK_KHACHANOV_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KRAJINOVIC_RUBLEV_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_UCHIYAMA_MONFILS_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TSITSIPAS_BUBLIK_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KOHLSCHREIBER_DJOKOVIC_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_RUBLEV_EVANS_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_GASQUET_MONFILS_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_STRUFF_TSITSIPAS_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DJOKOVIC_KHACHANOV_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_EVANS_TSITSIPAS_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_DJOKOVIC_MONFILS_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_DJOKOVIC_TSITSIPAS_3_DUBAI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FRITZ_HUMBERT_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KWON_LAJOVIC_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DIMITROV_MANNARINO_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ISNER_GIRON_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALIASSIME_EDMUND_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MARTINEZ_WAWRINKA_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_PAUL_ZVEREV_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KECMANOVIC_NADAL_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_FRITZ_EDMUND_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ISNER_PAUL_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_WAWRINKA_DIMITROV_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KWON_NADAL_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_FRITZ_ISNER_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_DIMITROV_NADAL_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_FRITZ_NADAL_3_ACAPULCO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MURRAY_RAONIC_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FUCSOVICS_KRAJINOVIC_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BAUTISTA_KHACHANOV_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOFFIN_STRUFF_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_OPELKA_BERRETTINI_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ISNER_TSITSIPAS_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MEDVEDEV_BEDENE_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SANDGREN_DJOKOVIC_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KRAJINOVIC_RAONIC_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_OPELKA_TSITSIPAS_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BAUTISTA_MEDVEDEV_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_STRUFF_DJOKOVIC_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_RAONIC_TSITSIPAS_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_BAUTISTA_DJOKOVIC_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_RAONIC_DJOKOVIC_3_CINCINNATI_2020_HARD</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E316"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6703,6 +6838,771 @@
         <v>33</v>
       </c>
     </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>3</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <v>2</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>2</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>2</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327">
+        <v>3</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>2</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>3</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>3</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>2</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336">
+        <v>2</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337">
+        <v>2</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>2</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>2</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>3</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B342">
+        <v>2</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343">
+        <v>2</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>3</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345">
+        <v>2</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B346">
+        <v>2</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B348">
+        <v>2</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>3</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350">
+        <v>2</v>
+      </c>
+      <c r="C350">
+        <v>3</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B352">
+        <v>2</v>
+      </c>
+      <c r="C352">
+        <v>2</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>2</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354">
+        <v>2</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B355">
+        <v>2</v>
+      </c>
+      <c r="C355">
+        <v>3</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B356">
+        <v>4</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>3</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B358">
+        <v>2</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360">
+        <v>3</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+      <c r="C361">
+        <v>3</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/PARTITE_dataset/matches_dataset_data.xlsx
+++ b/DATA/PARTITE_dataset/matches_dataset_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
   <si>
     <t>SEGNO</t>
   </si>
@@ -1106,6 +1106,141 @@
   </si>
   <si>
     <t>F_RAONIC_DJOKOVIC_3_CINCINNATI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NORRIE_KECMANOVIC_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CORIC_SAFIULLIN_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BUBLIK_RAONIC_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_WAWRINKA_DONSKOY_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KARATSEV_KHACHANOV_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HUMBERT_RUBLEV_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_IVASHKA_SHAPOVALOV_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MEDVEDEV_OPELKA_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_OPELKA_CORIC_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KHACHANOV_RAONIC_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_NORRIE_RUBLEV_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SHAPOVALOV_WAWRINKA_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_CORIC_RAONIC_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_RUBLEV_SHAPOVALOV_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_CORIC_RUBLEV_3_SanPIETROBURGO_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HARRIS_JOHNSON_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALBOT_OTTE_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FOKINA_CILIC_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MischaZVEREV_HURKACZ_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NOVAK_PAIRE_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALIASSIME_LAAKSONEN_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SIMON_BAUTISTA_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ZVEREV_VERDASCO_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_NOVAK_FOKINA_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ALBOT_ALIASSIME_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_HURKACZ_BAUTISTA_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ZVEREV_HARRIS_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_BAUTISTA_ALIASSIME_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_FOKINA_ZVEREV_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_ALIASSIME_ZVEREV_3_COLONIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_EVANS_TIAFOE_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_LOPEZ_DeMINAUR_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FRITZ_HARRIS_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_RAONIC_NORRIE_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DIMITROV_ANDUJAR_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BERGS_KHACHANOV_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CARRENO_HUMBERT_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GIRON_GOFFIN_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_HUMBERT_HARRIS_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DeMINAUR_GIRON_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_RAONIC_DIMITROV_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_EVANS_KHACHANOV_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_EVANS_HUMBERT_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_DIMITROV_DeMINAUR_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_DeMINAUR_HUMBERT_3_ANTWERP_2020_HARD</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:E406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7603,6 +7738,771 @@
         <v>26</v>
       </c>
     </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>3</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363">
+        <v>2</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B364">
+        <v>2</v>
+      </c>
+      <c r="C364">
+        <v>2</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>3</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366">
+        <v>3</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B367">
+        <v>2</v>
+      </c>
+      <c r="C367">
+        <v>3</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B368">
+        <v>2</v>
+      </c>
+      <c r="C368">
+        <v>2</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="C369">
+        <v>3</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+      <c r="C370">
+        <v>2</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="C371">
+        <v>2</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372">
+        <v>2</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>2</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>3</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>3</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376">
+        <v>2</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>2</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>3</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>3</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+      <c r="C380">
+        <v>2</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>2</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B383">
+        <v>2</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B385">
+        <v>2</v>
+      </c>
+      <c r="C385">
+        <v>3</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B386">
+        <v>2</v>
+      </c>
+      <c r="C386">
+        <v>2</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387">
+        <v>3</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>3</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B389">
+        <v>2</v>
+      </c>
+      <c r="C389">
+        <v>3</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B390">
+        <v>2</v>
+      </c>
+      <c r="C390">
+        <v>2</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B391">
+        <v>2</v>
+      </c>
+      <c r="C391">
+        <v>2</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393">
+        <v>2</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B394">
+        <v>2</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>2</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>3</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B397">
+        <v>2</v>
+      </c>
+      <c r="C397">
+        <v>3</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B398">
+        <v>2</v>
+      </c>
+      <c r="C398">
+        <v>3</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+      <c r="E398">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+      <c r="E399">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+      <c r="E401">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B402">
+        <v>4</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403">
+        <v>3</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B404">
+        <v>2</v>
+      </c>
+      <c r="C404">
+        <v>3</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+      <c r="E404">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B405">
+        <v>2</v>
+      </c>
+      <c r="C405">
+        <v>3</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B406">
+        <v>2</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/PARTITE_dataset/matches_dataset_data.xlsx
+++ b/DATA/PARTITE_dataset/matches_dataset_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>SEGNO</t>
   </si>
@@ -1241,6 +1241,141 @@
   </si>
   <si>
     <t>F_DeMINAUR_HUMBERT_3_ANTWERP_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SINNER_HERBERT_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_JOHNSON_FOKINA_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MANNARINO_KECMANOVIC_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_STRUFF_NISHIOKA_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALIASSIME_GERASIMOV_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SHAPOVALOV_SIMON_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_OTTE_SCHWARTZMAN_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MILLMAN_ZVEREV_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SIMON_SINNER_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_NISHIOKA_ALIASSIME_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_FOKINA_SCHWARTZMAN_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ZVEREV_MANNARINO_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_SCHWARTZMAN_ALIASSIME_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_ZVEREV_SINNER_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_SCHWARTZMAN_ZVEREV_3_COLONIA2_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SONEGO_HURKACZ_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_EVANS_RODIONOV_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CARRENO_ANDERSON_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SINNER_RUBLEV_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MEDVEDEV_POSPISIL_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TSITSIPAS_DIMITROV_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GARIN_THIEM_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CORIC_DJOKOVIC_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DIMITROV_EVANS_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MEDVEDEV_ANDERSON_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_RUBLEV_THIEM_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SONEGO_DJOKOVIC_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_EVANS_SONEGO_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_ANDERSON_RUBLEV_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_RUBLEV_SONEGO_3_VIENNA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_McDONALD_SEPPI_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_VESELY_GERASIMOV_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_THOMPSON_RUUSUVUORI_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALBOT_PAUL_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MILLMAN_VERDASCO_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SUGITA_MANNARINO_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TIAFOE_KECMANOVIC_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_PAIRE_KUKUSHKIN_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_TIAFOE_GERASIMOV_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_RUUSUVUORI_KUKUSHKIN_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_PAUL_MILLMAN_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MANNARINO_McDONALD_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_MILLMAN_TIAFOE_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_MANNARINO_RUUSUVUORI_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_MANNARINO_MILLMAN_3_NurSULTAN_2020_HARD</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E406"/>
+  <dimension ref="A1:E451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8503,6 +8638,771 @@
         <v>20</v>
       </c>
     </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+      <c r="E407">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+      <c r="C408">
+        <v>2</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+      <c r="C409">
+        <v>2</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+      <c r="E409">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B410">
+        <v>2</v>
+      </c>
+      <c r="C410">
+        <v>3</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+      <c r="C411">
+        <v>3</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B412">
+        <v>2</v>
+      </c>
+      <c r="C412">
+        <v>3</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="E412">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B413">
+        <v>2</v>
+      </c>
+      <c r="C413">
+        <v>2</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="E413">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B414">
+        <v>2</v>
+      </c>
+      <c r="C414">
+        <v>3</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B415">
+        <v>2</v>
+      </c>
+      <c r="C415">
+        <v>3</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+      <c r="E415">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B416">
+        <v>2</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+      <c r="E416">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+      <c r="C417">
+        <v>3</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+      <c r="E417">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>3</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419">
+        <v>3</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B421">
+        <v>2</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+      <c r="E421">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+      <c r="E422">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+      <c r="E423">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B424">
+        <v>2</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B425">
+        <v>4</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+      <c r="E425">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>3</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+      <c r="E426">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B427">
+        <v>2</v>
+      </c>
+      <c r="C427">
+        <v>3</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B428">
+        <v>2</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B429">
+        <v>2</v>
+      </c>
+      <c r="C429">
+        <v>2</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B430">
+        <v>2</v>
+      </c>
+      <c r="C430">
+        <v>3</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+      <c r="E430">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B431">
+        <v>2</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+      <c r="E432">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+      <c r="E433">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B434">
+        <v>2</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B435">
+        <v>4</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+      <c r="C437">
+        <v>3</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B438">
+        <v>2</v>
+      </c>
+      <c r="C438">
+        <v>3</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B439">
+        <v>2</v>
+      </c>
+      <c r="C439">
+        <v>3</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B440">
+        <v>2</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+      <c r="C441">
+        <v>2</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+      <c r="E441">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B442">
+        <v>2</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+      <c r="E442">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B444">
+        <v>2</v>
+      </c>
+      <c r="C444">
+        <v>3</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+      <c r="E444">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+      <c r="C445">
+        <v>3</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B447">
+        <v>2</v>
+      </c>
+      <c r="C447">
+        <v>3</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449">
+        <v>3</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+      <c r="E450">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B451">
+        <v>2</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/PARTITE_dataset/matches_dataset_data.xlsx
+++ b/DATA/PARTITE_dataset/matches_dataset_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="499">
   <si>
     <t>SEGNO</t>
   </si>
@@ -1376,6 +1376,141 @@
   </si>
   <si>
     <t>F_MANNARINO_MILLMAN_3_NurSULTAN_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HUMBERT_CILIC_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GIRON_RAONIC_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOMBOS_CARRENO_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FOKINA_SCHWARTZMAN_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_RUBLEV_WAWRINKA_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MANNARINO_ZVEREV_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MEDVEDEV_DeMINAUR_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_THOMPSON_NADAL_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_HUMBERT_RAONIC_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ZVEREV_WAWRINKA_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MEDVEDEV_SCHWARTZMAN_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_NADAL_CARRENO_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_RAONIC_MEDVEDEV_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_NADAL_ZVEREV_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_ZVEREV_MEDVEDEV_3_PARIGI_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SINNER_HUESLER_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FOREJTEK_GASQUET_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MILLMAN_SIMON_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MANNARINO_GERASIMOV_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_STRUFF_POSPISIL_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DeMINAUR_KARATSEV_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CARUSO_ALIASSIME_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SHAPOVALOV_ALBOT_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_GASQUET_CARUSO_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MILLMAN_POSPISIL_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ALBOT_MANNARINO_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SINNER_DeMINAUR_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_GASQUET_POSPISIL_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>SF_SINNER_MANNARINO_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>F_POSPISIL_SINNER_3_SOFIA_2020_HARD</t>
+  </si>
+  <si>
+    <t>OTT_JARRY_WAWRINKA_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BERANKIS_LAJOVIC_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MARTERER_HERBERT_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BERDYCH_VERDASCO_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BAUTISTA_GARCIA_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_RUBLEV_BASILASHVILI_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CECCHINATO_PELLA_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FUCSOVICS_DJOKOVIC_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BERDYCH_HERBERT_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_WAWRINKA_BAUTISTA_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_LAJOVIC_CECCHINATO_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DJOKOVIC_BASILASHVILI_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_BERDYCH_CECCHINATO_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_BAUTISTA_DJOKOVIC_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_BERDYCH_BAUTISTA_3_DOHA_2019_HARD</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E451"/>
+  <dimension ref="A1:E496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9403,6 +9538,771 @@
         <v>19</v>
       </c>
     </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>3</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="E452">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B453">
+        <v>2</v>
+      </c>
+      <c r="C453">
+        <v>2</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B454">
+        <v>2</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+      <c r="D454">
+        <v>0</v>
+      </c>
+      <c r="E454">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B455">
+        <v>2</v>
+      </c>
+      <c r="C455">
+        <v>2</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="E455">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B456">
+        <v>2</v>
+      </c>
+      <c r="C456">
+        <v>3</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+      <c r="E456">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B457">
+        <v>2</v>
+      </c>
+      <c r="C457">
+        <v>3</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>3</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+      <c r="E458">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B459">
+        <v>2</v>
+      </c>
+      <c r="C459">
+        <v>2</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+      <c r="E459">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B460">
+        <v>2</v>
+      </c>
+      <c r="C460">
+        <v>3</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+      <c r="E460">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461">
+        <v>2</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>2</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+      <c r="C463">
+        <v>3</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+      <c r="E463">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B464">
+        <v>2</v>
+      </c>
+      <c r="C464">
+        <v>2</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B465">
+        <v>2</v>
+      </c>
+      <c r="C465">
+        <v>2</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+      <c r="E465">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B466">
+        <v>2</v>
+      </c>
+      <c r="C466">
+        <v>3</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+      <c r="E466">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467">
+        <v>2</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B468">
+        <v>2</v>
+      </c>
+      <c r="C468">
+        <v>2</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+      <c r="C469">
+        <v>3</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B471">
+        <v>2</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+      <c r="E473">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B474">
+        <v>2</v>
+      </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B476">
+        <v>2</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B477">
+        <v>2</v>
+      </c>
+      <c r="C477">
+        <v>3</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>3</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B479">
+        <v>2</v>
+      </c>
+      <c r="C479">
+        <v>3</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+      <c r="E480">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B481">
+        <v>2</v>
+      </c>
+      <c r="C481">
+        <v>3</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B482">
+        <v>2</v>
+      </c>
+      <c r="C482">
+        <v>2</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+      <c r="E482">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B483">
+        <v>2</v>
+      </c>
+      <c r="C483">
+        <v>3</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B484">
+        <v>2</v>
+      </c>
+      <c r="C484">
+        <v>3</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+      <c r="C485">
+        <v>3</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
+      </c>
+      <c r="E485">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B487">
+        <v>2</v>
+      </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+      <c r="D487">
+        <v>0</v>
+      </c>
+      <c r="E487">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B488">
+        <v>3</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>0</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B489">
+        <v>2</v>
+      </c>
+      <c r="C489">
+        <v>3</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
+        <v>2</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B491">
+        <v>2</v>
+      </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B492">
+        <v>2</v>
+      </c>
+      <c r="C492">
+        <v>2</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+      <c r="E492">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+      <c r="C493">
+        <v>3</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>2</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+      <c r="E494">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+      <c r="C495">
+        <v>3</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+      <c r="E495">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B496">
+        <v>2</v>
+      </c>
+      <c r="C496">
+        <v>3</v>
+      </c>
+      <c r="D496">
+        <v>0</v>
+      </c>
+      <c r="E496">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/PARTITE_dataset/matches_dataset_data.xlsx
+++ b/DATA/PARTITE_dataset/matches_dataset_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="544">
   <si>
     <t>SEGNO</t>
   </si>
@@ -1511,6 +1511,141 @@
   </si>
   <si>
     <t>F_BERDYCH_BAUTISTA_3_DOHA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TSONGA_DANIEL_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CHARDY_KYRGIOS_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DeMINAUR_THOMPSON_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MILLMAN_DIMITROV_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_RAONIC_KECMANOVIC_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MURRAY_MEDVEDEV_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_EDMUND_UCHIYAMA_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NISHIKORI_KUDLA_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_UCHIYAMA_CHARDY_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DeMINAUR_TSONGA_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_RAONIC_MEDVEDEV_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DIMITROV_NISHIKORI_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_MEDVEDEV_TSONGA_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_NISHIKORI_CHARDY_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_NISHIKORI_MEDVEDEV_3_BRISBANE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KARLOVIC_DONSKOY_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DARCIS_MMOH_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BOLELLI_MUNAR_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_VESELY_PAIRE_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_JAZIRI_RAMANATHAN_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_IVASHKA_SIMON_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CHUNG_GULBIS_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DJERE_ANDERSON_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KARLOVIC_GULBIS_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_JAZIRI_DARCIS_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_PAIRE_SIMON_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MUNAR_ANDERSON_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_KARLOVIC_DARCIS_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_ANDERSON_SIMON_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_ANDERSON_KARLOVIC_3_PUNE_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DANIEL_THOMPSON_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NISHIOKA_RUBLEV_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SEPPI_KLIZAN_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MILLMAN_FUCSOVICS_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_OPELKA_DeMINAUR_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_QUERREY_SIMON_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SCHWARTZMAN_GARCIA_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TSITSIPAS_ANDREOZZI_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DeMINAUR_THOMPSON_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SIMON_MILLMAN_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_NISHIOKA_SCHWARTZMAN_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SEPPI_TSITSIPAS_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_DeMINAUR_SIMON_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_SCHWARTZMAN_SEPPI_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_SEPPI_DeMINAUR_3_SYDNEY_2019_HARD</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E496"/>
+  <dimension ref="A1:E541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10303,6 +10438,771 @@
         <v>28</v>
       </c>
     </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+      <c r="C497">
+        <v>2</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498">
+        <v>3</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+      <c r="C499">
+        <v>2</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+      <c r="E499">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B500">
+        <v>2</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+      <c r="E500">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+      <c r="C501">
+        <v>2</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+      <c r="E501">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B502">
+        <v>2</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+      <c r="E502">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B503">
+        <v>2</v>
+      </c>
+      <c r="C503">
+        <v>2</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+      <c r="E504">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B505">
+        <v>2</v>
+      </c>
+      <c r="C505">
+        <v>3</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+      <c r="E505">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B506">
+        <v>2</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B507">
+        <v>2</v>
+      </c>
+      <c r="C507">
+        <v>3</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="E507">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B508">
+        <v>2</v>
+      </c>
+      <c r="C508">
+        <v>2</v>
+      </c>
+      <c r="D508">
+        <v>0</v>
+      </c>
+      <c r="E508">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+      <c r="C509">
+        <v>2</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+      <c r="E509">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+      <c r="C510">
+        <v>2</v>
+      </c>
+      <c r="D510">
+        <v>0</v>
+      </c>
+      <c r="E510">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+      <c r="C511">
+        <v>3</v>
+      </c>
+      <c r="D511">
+        <v>0</v>
+      </c>
+      <c r="E511">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512">
+        <v>2</v>
+      </c>
+      <c r="D512">
+        <v>0</v>
+      </c>
+      <c r="E512">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
+      <c r="C513">
+        <v>3</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B514">
+        <v>2</v>
+      </c>
+      <c r="C514">
+        <v>2</v>
+      </c>
+      <c r="D514">
+        <v>0</v>
+      </c>
+      <c r="E514">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B515">
+        <v>2</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+      <c r="D515">
+        <v>0</v>
+      </c>
+      <c r="E515">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+      <c r="C516">
+        <v>3</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+      <c r="E516">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B517">
+        <v>2</v>
+      </c>
+      <c r="C517">
+        <v>3</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B518">
+        <v>2</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+      <c r="D518">
+        <v>1</v>
+      </c>
+      <c r="E518">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B519">
+        <v>2</v>
+      </c>
+      <c r="C519">
+        <v>2</v>
+      </c>
+      <c r="D519">
+        <v>1</v>
+      </c>
+      <c r="E519">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+      <c r="C520">
+        <v>2</v>
+      </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+      <c r="E520">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B521">
+        <v>2</v>
+      </c>
+      <c r="C521">
+        <v>2</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+      <c r="E521">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B522">
+        <v>2</v>
+      </c>
+      <c r="C522">
+        <v>3</v>
+      </c>
+      <c r="D522">
+        <v>1</v>
+      </c>
+      <c r="E522">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B523">
+        <v>2</v>
+      </c>
+      <c r="C523">
+        <v>2</v>
+      </c>
+      <c r="D523">
+        <v>0</v>
+      </c>
+      <c r="E523">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+      <c r="C524">
+        <v>3</v>
+      </c>
+      <c r="D524">
+        <v>1</v>
+      </c>
+      <c r="E524">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B525">
+        <v>1</v>
+      </c>
+      <c r="C525">
+        <v>2</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+      <c r="C526">
+        <v>3</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+      <c r="E526">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B527">
+        <v>2</v>
+      </c>
+      <c r="C527">
+        <v>3</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+      <c r="E527">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+      <c r="C528">
+        <v>2</v>
+      </c>
+      <c r="D528">
+        <v>0</v>
+      </c>
+      <c r="E528">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B529">
+        <v>1</v>
+      </c>
+      <c r="C529">
+        <v>2</v>
+      </c>
+      <c r="D529">
+        <v>1</v>
+      </c>
+      <c r="E529">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+      <c r="C530">
+        <v>2</v>
+      </c>
+      <c r="D530">
+        <v>0</v>
+      </c>
+      <c r="E530">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B531">
+        <v>2</v>
+      </c>
+      <c r="C531">
+        <v>2</v>
+      </c>
+      <c r="D531">
+        <v>1</v>
+      </c>
+      <c r="E531">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B532">
+        <v>2</v>
+      </c>
+      <c r="C532">
+        <v>3</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+      <c r="E532">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+      <c r="C533">
+        <v>2</v>
+      </c>
+      <c r="D533">
+        <v>0</v>
+      </c>
+      <c r="E533">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534">
+        <v>2</v>
+      </c>
+      <c r="D534">
+        <v>0</v>
+      </c>
+      <c r="E534">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+      <c r="C535">
+        <v>2</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536">
+        <v>3</v>
+      </c>
+      <c r="D536">
+        <v>1</v>
+      </c>
+      <c r="E536">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B537">
+        <v>2</v>
+      </c>
+      <c r="C537">
+        <v>3</v>
+      </c>
+      <c r="D537">
+        <v>1</v>
+      </c>
+      <c r="E537">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538">
+        <v>3</v>
+      </c>
+      <c r="D538">
+        <v>0</v>
+      </c>
+      <c r="E538">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B539">
+        <v>1</v>
+      </c>
+      <c r="C539">
+        <v>2</v>
+      </c>
+      <c r="D539">
+        <v>0</v>
+      </c>
+      <c r="E539">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B540">
+        <v>2</v>
+      </c>
+      <c r="C540">
+        <v>2</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
+      </c>
+      <c r="E540">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B541">
+        <v>2</v>
+      </c>
+      <c r="C541">
+        <v>2</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
+      </c>
+      <c r="E541">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/PARTITE_dataset/matches_dataset_data.xlsx
+++ b/DATA/PARTITE_dataset/matches_dataset_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="649">
   <si>
     <t>SEGNO</t>
   </si>
@@ -1646,6 +1646,321 @@
   </si>
   <si>
     <t>F_SEPPI_DeMINAUR_3_SYDNEY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_STRUFF_STATHAM_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NORRIE_SOUSA_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MAYER_BERRETTINI_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KOHLSCHREIBER_HUMBERT_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CARRENO_FERRER_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SANDGREN_CECCHINATO_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOJOWCZYK_FOGNINI_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ISNER_FRITZ_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MAYER_SANDGREN_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_FRITZ_NORRIE_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_STRUFF_CARRENO_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KOHLSCHREIBER_FOGNINI_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_SANDGREN_KOHLSCHREIBER_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_NORRIE_STRUFF_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_NORRIE_SANDGREN_3_AUCKLAND_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALBOT_GULBIS_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BERDYCH_PAIRE_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_IVASHKA_HERBERT_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HOANG_CHARDY_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SIMON_TSONGA_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SHAPOVALOV_GRANOLLERS_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KRAJINOVIC_GOFFIN_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_POUILLE_BAGHDATIS_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KRAJINOVIC_BERDYCH_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BAGHDATIS_ALBOT_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_CHARDY_TSONGA_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SHAPOVALOV_HERBERT_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_TSONGA_ALBOT_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_HERBERT_BERDYCH_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_TSONGA_HERBERT_3_MONTPELLIER_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BRANDS_KLIZAN_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MADEN_FUCSOVICS_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KUKUSHKIN_MONFILS_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_COPIL_VERDASCO_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_EBDEN_BAUTISTA_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MEDVEDEV_HAASE_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TSITSIPAS_STRUFF_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BERRETTINI_KHACHANOV_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_VERDASCO_BERRETTINI_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BAUTISTA_FUCSOVICS_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KLIZAN_MEDVEDEV_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_TSITSIPAS_MONFILS_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_FUCSOVICS_BERRETTINI_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_MEDVEDEV_MONFILS_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_FUCSOVICS_MEDVEDEV_3_SOFIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TSONGA_GRIEKSPOOR_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MONFILS_SEPPI_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KUKUSHKIN_DZUMHUR_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BERDYCH_SHAPOVALOV_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BASILASHVILI_FUCSOVICS_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_VERDASCO_MEDVEDEV_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_WAWRINKA_RAONIC_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NISHIKORI_GULBIS_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DZUMHUR_MONFILS_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SHAPOVALOV_WAWRINKA_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MEDVEDEV_TSONGA_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_FUCSOVICS_NISHIKORI_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_MEDVEDEV_MONFILS_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_NISHIKORI_WAWRINKA_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_WAWRINKA_MONFILS_3_ROTTERDAM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_OPELKA_ISTOMIN_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_LORENZI_HARRISON_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_THOMPSON_EUBANKS_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALBOT_QUERREY_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GARCIA_MILLMAN_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_JOHNSON_SCHNUR_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TIAFOE_JUNG_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TOMIC_ISNER_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_LORENZI_SCHNUR_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_OPELKA_GARCIA_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_JUNG_QUERREY_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ISNER_THOMPSON_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_SCHNUR_QUERREY_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_ISNER_OPELKA_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_OPELKA_SCHNUR_3_NewYORK_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BARRERE_STAKHOVSKY_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_RUBLEV_BERRETTINI_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SIMON_GOJOWCZYK_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BACHINGER_VERDASCO_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KUKUSHKIN_SHAPOVALOV_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOFFIN_PAIRE_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CORIC_HUMBERT_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HURKACZ_TSITSIPAS_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KUKUSHKIN_RUBLEV_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BACHINGER_HUMBERT_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SIMON_GOFFIN_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_STAKHOVSKY_TSITSIPAS_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_KUKUSHKIN_HUMBERT_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_TSITSIPAS_GOFFIN_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_KUKUSHKIN_TSITSIPAS_3_MARSIGLIA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_McDONALD_GARCIA_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_EVANS_HARRIS_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KYRGIOS_ALBOT_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ISTOMIN_MANNARINO_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_THOMPSON_SEPPI_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_LORENZI_JOHNSON_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ISNER_LACKO_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DelPOTRO_OPELKA_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_EVANS_SEPPI_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ALBOT_JOHNSON_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ISNER_MANNARINO_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_McDONALD_DelPOTRO_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_McDONALD_ALBOT_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_ISNER_EVANS_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_ALBOT_EVANS_3_DELRAY_2019_HARD</t>
   </si>
 </sst>
 </file>
@@ -2003,7 +2318,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E541"/>
+  <dimension ref="A1:E646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11203,6 +11518,1791 @@
         <v>25</v>
       </c>
     </row>
+    <row r="542" spans="1:5">
+      <c r="A542" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+      <c r="C542">
+        <v>2</v>
+      </c>
+      <c r="D542">
+        <v>0</v>
+      </c>
+      <c r="E542">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B543">
+        <v>1</v>
+      </c>
+      <c r="C543">
+        <v>2</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+      <c r="C544">
+        <v>3</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B545">
+        <v>1</v>
+      </c>
+      <c r="C545">
+        <v>2</v>
+      </c>
+      <c r="D545">
+        <v>0</v>
+      </c>
+      <c r="E545">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B546">
+        <v>3</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+      <c r="D546">
+        <v>0</v>
+      </c>
+      <c r="E546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B547">
+        <v>1</v>
+      </c>
+      <c r="C547">
+        <v>2</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+      <c r="E547">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B548">
+        <v>2</v>
+      </c>
+      <c r="C548">
+        <v>3</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
+      </c>
+      <c r="E548">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B549">
+        <v>2</v>
+      </c>
+      <c r="C549">
+        <v>2</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
+      </c>
+      <c r="E549">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B550">
+        <v>2</v>
+      </c>
+      <c r="C550">
+        <v>2</v>
+      </c>
+      <c r="D550">
+        <v>1</v>
+      </c>
+      <c r="E550">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B551">
+        <v>2</v>
+      </c>
+      <c r="C551">
+        <v>2</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+      <c r="E551">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+      <c r="C552">
+        <v>3</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B553">
+        <v>1</v>
+      </c>
+      <c r="C553">
+        <v>2</v>
+      </c>
+      <c r="D553">
+        <v>0</v>
+      </c>
+      <c r="E553">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+      <c r="C554">
+        <v>2</v>
+      </c>
+      <c r="D554">
+        <v>0</v>
+      </c>
+      <c r="E554">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+      <c r="C555">
+        <v>3</v>
+      </c>
+      <c r="D555">
+        <v>0</v>
+      </c>
+      <c r="E555">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B556">
+        <v>2</v>
+      </c>
+      <c r="C556">
+        <v>2</v>
+      </c>
+      <c r="D556">
+        <v>0</v>
+      </c>
+      <c r="E556">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="A557" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B557">
+        <v>1</v>
+      </c>
+      <c r="C557">
+        <v>3</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="E557">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
+      <c r="C558">
+        <v>2</v>
+      </c>
+      <c r="D558">
+        <v>0</v>
+      </c>
+      <c r="E558">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B559">
+        <v>2</v>
+      </c>
+      <c r="C559">
+        <v>3</v>
+      </c>
+      <c r="D559">
+        <v>0</v>
+      </c>
+      <c r="E559">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B560">
+        <v>2</v>
+      </c>
+      <c r="C560">
+        <v>2</v>
+      </c>
+      <c r="D560">
+        <v>0</v>
+      </c>
+      <c r="E560">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B561">
+        <v>2</v>
+      </c>
+      <c r="C561">
+        <v>2</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+      <c r="E561">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+      <c r="C562">
+        <v>2</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
+      </c>
+      <c r="E562">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B563">
+        <v>1</v>
+      </c>
+      <c r="C563">
+        <v>2</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B564">
+        <v>2</v>
+      </c>
+      <c r="C564">
+        <v>3</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="E564">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B565">
+        <v>2</v>
+      </c>
+      <c r="C565">
+        <v>3</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B566">
+        <v>2</v>
+      </c>
+      <c r="C566">
+        <v>2</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="E566">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B567">
+        <v>2</v>
+      </c>
+      <c r="C567">
+        <v>3</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+      <c r="E567">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B568">
+        <v>2</v>
+      </c>
+      <c r="C568">
+        <v>2</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B569">
+        <v>1</v>
+      </c>
+      <c r="C569">
+        <v>2</v>
+      </c>
+      <c r="D569">
+        <v>0</v>
+      </c>
+      <c r="E569">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+      <c r="C570">
+        <v>2</v>
+      </c>
+      <c r="D570">
+        <v>0</v>
+      </c>
+      <c r="E570">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
+      </c>
+      <c r="C571">
+        <v>2</v>
+      </c>
+      <c r="D571">
+        <v>0</v>
+      </c>
+      <c r="E571">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B572">
+        <v>2</v>
+      </c>
+      <c r="C572">
+        <v>2</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="E572">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B573">
+        <v>2</v>
+      </c>
+      <c r="C573">
+        <v>3</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B574">
+        <v>2</v>
+      </c>
+      <c r="C574">
+        <v>2</v>
+      </c>
+      <c r="D574">
+        <v>0</v>
+      </c>
+      <c r="E574">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B575">
+        <v>2</v>
+      </c>
+      <c r="C575">
+        <v>3</v>
+      </c>
+      <c r="D575">
+        <v>0</v>
+      </c>
+      <c r="E575">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B576">
+        <v>2</v>
+      </c>
+      <c r="C576">
+        <v>3</v>
+      </c>
+      <c r="D576">
+        <v>0</v>
+      </c>
+      <c r="E576">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="A577" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B577">
+        <v>1</v>
+      </c>
+      <c r="C577">
+        <v>3</v>
+      </c>
+      <c r="D577">
+        <v>0</v>
+      </c>
+      <c r="E577">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
+      <c r="C578">
+        <v>2</v>
+      </c>
+      <c r="D578">
+        <v>1</v>
+      </c>
+      <c r="E578">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B579">
+        <v>1</v>
+      </c>
+      <c r="C579">
+        <v>3</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+      <c r="E579">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B580">
+        <v>2</v>
+      </c>
+      <c r="C580">
+        <v>3</v>
+      </c>
+      <c r="D580">
+        <v>0</v>
+      </c>
+      <c r="E580">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B581">
+        <v>4</v>
+      </c>
+      <c r="C581">
+        <v>0</v>
+      </c>
+      <c r="D581">
+        <v>0</v>
+      </c>
+      <c r="E581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B582">
+        <v>2</v>
+      </c>
+      <c r="C582">
+        <v>2</v>
+      </c>
+      <c r="D582">
+        <v>0</v>
+      </c>
+      <c r="E582">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="A583" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B583">
+        <v>2</v>
+      </c>
+      <c r="C583">
+        <v>2</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
+      </c>
+      <c r="E583">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+      <c r="C584">
+        <v>3</v>
+      </c>
+      <c r="D584">
+        <v>0</v>
+      </c>
+      <c r="E584">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
+      <c r="C585">
+        <v>2</v>
+      </c>
+      <c r="D585">
+        <v>0</v>
+      </c>
+      <c r="E585">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B586">
+        <v>2</v>
+      </c>
+      <c r="C586">
+        <v>2</v>
+      </c>
+      <c r="D586">
+        <v>0</v>
+      </c>
+      <c r="E586">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B587">
+        <v>1</v>
+      </c>
+      <c r="C587">
+        <v>2</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+      <c r="E587">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+      <c r="C588">
+        <v>3</v>
+      </c>
+      <c r="D588">
+        <v>0</v>
+      </c>
+      <c r="E588">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B589">
+        <v>2</v>
+      </c>
+      <c r="C589">
+        <v>2</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="E589">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B590">
+        <v>2</v>
+      </c>
+      <c r="C590">
+        <v>2</v>
+      </c>
+      <c r="D590">
+        <v>0</v>
+      </c>
+      <c r="E590">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B591">
+        <v>2</v>
+      </c>
+      <c r="C591">
+        <v>2</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+      <c r="E591">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B592">
+        <v>2</v>
+      </c>
+      <c r="C592">
+        <v>2</v>
+      </c>
+      <c r="D592">
+        <v>0</v>
+      </c>
+      <c r="E592">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B593">
+        <v>1</v>
+      </c>
+      <c r="C593">
+        <v>2</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+      <c r="E593">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+      <c r="C594">
+        <v>2</v>
+      </c>
+      <c r="D594">
+        <v>0</v>
+      </c>
+      <c r="E594">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B595">
+        <v>2</v>
+      </c>
+      <c r="C595">
+        <v>2</v>
+      </c>
+      <c r="D595">
+        <v>0</v>
+      </c>
+      <c r="E595">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B596">
+        <v>2</v>
+      </c>
+      <c r="C596">
+        <v>2</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+      <c r="E596">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B597">
+        <v>1</v>
+      </c>
+      <c r="C597">
+        <v>2</v>
+      </c>
+      <c r="D597">
+        <v>0</v>
+      </c>
+      <c r="E597">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B598">
+        <v>2</v>
+      </c>
+      <c r="C598">
+        <v>2</v>
+      </c>
+      <c r="D598">
+        <v>0</v>
+      </c>
+      <c r="E598">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B599">
+        <v>2</v>
+      </c>
+      <c r="C599">
+        <v>3</v>
+      </c>
+      <c r="D599">
+        <v>0</v>
+      </c>
+      <c r="E599">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B600">
+        <v>2</v>
+      </c>
+      <c r="C600">
+        <v>3</v>
+      </c>
+      <c r="D600">
+        <v>0</v>
+      </c>
+      <c r="E600">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B601">
+        <v>2</v>
+      </c>
+      <c r="C601">
+        <v>3</v>
+      </c>
+      <c r="D601">
+        <v>0</v>
+      </c>
+      <c r="E601">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B602">
+        <v>3</v>
+      </c>
+      <c r="C602">
+        <v>2</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="E602">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B603">
+        <v>1</v>
+      </c>
+      <c r="C603">
+        <v>3</v>
+      </c>
+      <c r="D603">
+        <v>0</v>
+      </c>
+      <c r="E603">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B604">
+        <v>1</v>
+      </c>
+      <c r="C604">
+        <v>3</v>
+      </c>
+      <c r="D604">
+        <v>0</v>
+      </c>
+      <c r="E604">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B605">
+        <v>2</v>
+      </c>
+      <c r="C605">
+        <v>2</v>
+      </c>
+      <c r="D605">
+        <v>0</v>
+      </c>
+      <c r="E605">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B606">
+        <v>1</v>
+      </c>
+      <c r="C606">
+        <v>3</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+      <c r="E606">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B607">
+        <v>2</v>
+      </c>
+      <c r="C607">
+        <v>3</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="E607">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B608">
+        <v>2</v>
+      </c>
+      <c r="C608">
+        <v>2</v>
+      </c>
+      <c r="D608">
+        <v>0</v>
+      </c>
+      <c r="E608">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B609">
+        <v>2</v>
+      </c>
+      <c r="C609">
+        <v>2</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
+      </c>
+      <c r="E609">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B610">
+        <v>2</v>
+      </c>
+      <c r="C610">
+        <v>3</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+      <c r="E610">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B611">
+        <v>1</v>
+      </c>
+      <c r="C611">
+        <v>2</v>
+      </c>
+      <c r="D611">
+        <v>0</v>
+      </c>
+      <c r="E611">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B612">
+        <v>2</v>
+      </c>
+      <c r="C612">
+        <v>3</v>
+      </c>
+      <c r="D612">
+        <v>0</v>
+      </c>
+      <c r="E612">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B613">
+        <v>1</v>
+      </c>
+      <c r="C613">
+        <v>2</v>
+      </c>
+      <c r="D613">
+        <v>0</v>
+      </c>
+      <c r="E613">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B614">
+        <v>1</v>
+      </c>
+      <c r="C614">
+        <v>3</v>
+      </c>
+      <c r="D614">
+        <v>1</v>
+      </c>
+      <c r="E614">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B615">
+        <v>2</v>
+      </c>
+      <c r="C615">
+        <v>3</v>
+      </c>
+      <c r="D615">
+        <v>1</v>
+      </c>
+      <c r="E615">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B616">
+        <v>1</v>
+      </c>
+      <c r="C616">
+        <v>3</v>
+      </c>
+      <c r="D616">
+        <v>1</v>
+      </c>
+      <c r="E616">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B617">
+        <v>2</v>
+      </c>
+      <c r="C617">
+        <v>2</v>
+      </c>
+      <c r="D617">
+        <v>0</v>
+      </c>
+      <c r="E617">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B618">
+        <v>1</v>
+      </c>
+      <c r="C618">
+        <v>2</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
+      </c>
+      <c r="E618">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B619">
+        <v>1</v>
+      </c>
+      <c r="C619">
+        <v>3</v>
+      </c>
+      <c r="D619">
+        <v>0</v>
+      </c>
+      <c r="E619">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B620">
+        <v>1</v>
+      </c>
+      <c r="C620">
+        <v>2</v>
+      </c>
+      <c r="D620">
+        <v>0</v>
+      </c>
+      <c r="E620">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B621">
+        <v>1</v>
+      </c>
+      <c r="C621">
+        <v>2</v>
+      </c>
+      <c r="D621">
+        <v>1</v>
+      </c>
+      <c r="E621">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B622">
+        <v>1</v>
+      </c>
+      <c r="C622">
+        <v>2</v>
+      </c>
+      <c r="D622">
+        <v>0</v>
+      </c>
+      <c r="E622">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B623">
+        <v>2</v>
+      </c>
+      <c r="C623">
+        <v>2</v>
+      </c>
+      <c r="D623">
+        <v>0</v>
+      </c>
+      <c r="E623">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B624">
+        <v>2</v>
+      </c>
+      <c r="C624">
+        <v>2</v>
+      </c>
+      <c r="D624">
+        <v>0</v>
+      </c>
+      <c r="E624">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="A625" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B625">
+        <v>1</v>
+      </c>
+      <c r="C625">
+        <v>2</v>
+      </c>
+      <c r="D625">
+        <v>0</v>
+      </c>
+      <c r="E625">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="A626" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B626">
+        <v>2</v>
+      </c>
+      <c r="C626">
+        <v>2</v>
+      </c>
+      <c r="D626">
+        <v>0</v>
+      </c>
+      <c r="E626">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B627">
+        <v>2</v>
+      </c>
+      <c r="C627">
+        <v>2</v>
+      </c>
+      <c r="D627">
+        <v>0</v>
+      </c>
+      <c r="E627">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B628">
+        <v>2</v>
+      </c>
+      <c r="C628">
+        <v>2</v>
+      </c>
+      <c r="D628">
+        <v>0</v>
+      </c>
+      <c r="E628">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B629">
+        <v>1</v>
+      </c>
+      <c r="C629">
+        <v>2</v>
+      </c>
+      <c r="D629">
+        <v>0</v>
+      </c>
+      <c r="E629">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B630">
+        <v>1</v>
+      </c>
+      <c r="C630">
+        <v>2</v>
+      </c>
+      <c r="D630">
+        <v>1</v>
+      </c>
+      <c r="E630">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B631">
+        <v>2</v>
+      </c>
+      <c r="C631">
+        <v>2</v>
+      </c>
+      <c r="D631">
+        <v>1</v>
+      </c>
+      <c r="E631">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B632">
+        <v>1</v>
+      </c>
+      <c r="C632">
+        <v>2</v>
+      </c>
+      <c r="D632">
+        <v>0</v>
+      </c>
+      <c r="E632">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B633">
+        <v>1</v>
+      </c>
+      <c r="C633">
+        <v>2</v>
+      </c>
+      <c r="D633">
+        <v>0</v>
+      </c>
+      <c r="E633">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B634">
+        <v>2</v>
+      </c>
+      <c r="C634">
+        <v>3</v>
+      </c>
+      <c r="D634">
+        <v>0</v>
+      </c>
+      <c r="E634">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B635">
+        <v>2</v>
+      </c>
+      <c r="C635">
+        <v>2</v>
+      </c>
+      <c r="D635">
+        <v>1</v>
+      </c>
+      <c r="E635">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B636">
+        <v>2</v>
+      </c>
+      <c r="C636">
+        <v>3</v>
+      </c>
+      <c r="D636">
+        <v>0</v>
+      </c>
+      <c r="E636">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B637">
+        <v>2</v>
+      </c>
+      <c r="C637">
+        <v>2</v>
+      </c>
+      <c r="D637">
+        <v>0</v>
+      </c>
+      <c r="E637">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B638">
+        <v>1</v>
+      </c>
+      <c r="C638">
+        <v>2</v>
+      </c>
+      <c r="D638">
+        <v>0</v>
+      </c>
+      <c r="E638">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B639">
+        <v>1</v>
+      </c>
+      <c r="C639">
+        <v>2</v>
+      </c>
+      <c r="D639">
+        <v>0</v>
+      </c>
+      <c r="E639">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B640">
+        <v>1</v>
+      </c>
+      <c r="C640">
+        <v>2</v>
+      </c>
+      <c r="D640">
+        <v>0</v>
+      </c>
+      <c r="E640">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B641">
+        <v>1</v>
+      </c>
+      <c r="C641">
+        <v>3</v>
+      </c>
+      <c r="D641">
+        <v>1</v>
+      </c>
+      <c r="E641">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B642">
+        <v>1</v>
+      </c>
+      <c r="C642">
+        <v>2</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+      <c r="E642">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B643">
+        <v>1</v>
+      </c>
+      <c r="C643">
+        <v>3</v>
+      </c>
+      <c r="D643">
+        <v>1</v>
+      </c>
+      <c r="E643">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B644">
+        <v>2</v>
+      </c>
+      <c r="C644">
+        <v>3</v>
+      </c>
+      <c r="D644">
+        <v>0</v>
+      </c>
+      <c r="E644">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="A645" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B645">
+        <v>2</v>
+      </c>
+      <c r="C645">
+        <v>3</v>
+      </c>
+      <c r="D645">
+        <v>0</v>
+      </c>
+      <c r="E645">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="A646" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B646">
+        <v>1</v>
+      </c>
+      <c r="C646">
+        <v>3</v>
+      </c>
+      <c r="D646">
+        <v>1</v>
+      </c>
+      <c r="E646">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/PARTITE_dataset/matches_dataset_data.xlsx
+++ b/DATA/PARTITE_dataset/matches_dataset_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="739">
   <si>
     <t>SEGNO</t>
   </si>
@@ -1961,6 +1961,276 @@
   </si>
   <si>
     <t>F_ALBOT_EVANS_3_DELRAY_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MONFILS_BAGHDATIS_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FUCSOVICS_STRUFF_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KUDLA_BERANKIS_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BAUTISTA_BASILASHVILI_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BERDYCH_CORIC_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GERASIMOV_TSITSIPAS_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_VERDASCO_FEDERER_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HURKACZ_NISHIKORI_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MONFILS_BERANKIS_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BASILASHVILI_CORIC_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_HURKACZ_TSITSIPAS_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_FUCSOVICS_FEDERER_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_MONFILS_TSITSIPAS_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_CORIC_FEDERER_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_FEDERER_TSITSIPAS_3_DUBAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MILLMAN_GOJOWCZYK_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_WAWRINKA_JOHNSON_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TIAFOE_McDONALD_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_LOPEZ_DeMINAUR_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NORRIE_SCHWARTZMAN_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ISNER_QUERREY_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FERRER_ZVEREV_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NADAL_KYRGIOS_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_McDONALD_NORRIE_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_WAWRINKA_KYRGIOS_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MILLMAN_ISNER_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DeMINAUR_ZVEREV_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_KYRGIOS_ISNER_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_NORRIE_ZVEREV_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_KYRGIOS_ZVEREV_3_ACAPULCO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KECMANOVIC_NISHIOKA_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HURKACZ_SHAPOVALOV_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MONFILS_KOHLSCHREIBER_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_STRUFF_RAONIC_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ISNER_KHACHANOV_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KARLOVIC_THIEM_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FEDERER_EDMUND_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KRAJINOVIC_NADAL_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_RAONIC_KECMANOVIC_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MONFILS_THIEM_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_HURKACZ_FEDERER_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_NADAL_KHACHANOV_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_RAONIC_THIEM_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_FEDERER_NADAL_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_THIEM_FEDERER_3_IndianWELLS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TIAFOE_GOFFIN_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BASILASHVILI_ALIASSIME_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KYRGIOS_CORIC_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TSITSIPAS_SHAPOVALOV_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ISNER_EDMUND_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ANDERSON_THOMPSON_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FEDERER_MEDVEDEV_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DJOKOVIC_BAUTISTA_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SHAPOVALOV_TIAFOE_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ALIASSIME_CORIC_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ISNER_BAUTISTA_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ANDERSON_FEDERER_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_ISNER_ALIASSIME_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_FEDERER_SHAPOVALOV_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_ISNER_FEDERER_3_MIAMI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TOMIC_EBDEN_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NORRIE_KWON_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HUMBERT_KECMANOVIC_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALBOT_EVANS_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HERBERT_POPYRIN_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KLAHN_DeMINAUR_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KING_FRITZ_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_OPELKA_ISNER_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_OPELKA_EVANS_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_NORRIE_POPYRIN_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_TOMIC_DeMINAUR_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KECMANOVIC_FRITZ_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_DeMINAUR_OPELKA_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_NORRIE_FRITZ_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_DeMINAUR_FRITZ_3_ATLANTA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KYRGIOS_NISHIOKA_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KECMANOVIC_GOMBOS_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TSONGA_EDMUND_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOJOWCZYK_RAONIC_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CILIC_ALIASSIME_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ISNER_PAIRE_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TIAFOE_MEDVEDEV_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_THOMPSON_TSITSIPAS_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KYRGIOS_GOMBOS_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_GOJOWCZYK_EDMUND_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MEDVEDEV_CILIC_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_PAIRE_TSITSIPAS_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_GOJOWCZYK_MEDVEDEV_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_TSITSIPAS_KYRGIOS_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_MEDVEDEV_KYRGIOS_3_WASHINGTON_2019_HARD</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E646"/>
+  <dimension ref="A1:E736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13303,6 +13573,1536 @@
         <v>31</v>
       </c>
     </row>
+    <row r="647" spans="1:5">
+      <c r="A647" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B647">
+        <v>1</v>
+      </c>
+      <c r="C647">
+        <v>2</v>
+      </c>
+      <c r="D647">
+        <v>0</v>
+      </c>
+      <c r="E647">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5">
+      <c r="A648" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B648">
+        <v>1</v>
+      </c>
+      <c r="C648">
+        <v>2</v>
+      </c>
+      <c r="D648">
+        <v>0</v>
+      </c>
+      <c r="E648">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="A649" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B649">
+        <v>2</v>
+      </c>
+      <c r="C649">
+        <v>2</v>
+      </c>
+      <c r="D649">
+        <v>0</v>
+      </c>
+      <c r="E649">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5">
+      <c r="A650" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B650">
+        <v>2</v>
+      </c>
+      <c r="C650">
+        <v>3</v>
+      </c>
+      <c r="D650">
+        <v>1</v>
+      </c>
+      <c r="E650">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5">
+      <c r="A651" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B651">
+        <v>2</v>
+      </c>
+      <c r="C651">
+        <v>3</v>
+      </c>
+      <c r="D651">
+        <v>1</v>
+      </c>
+      <c r="E651">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5">
+      <c r="A652" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B652">
+        <v>2</v>
+      </c>
+      <c r="C652">
+        <v>2</v>
+      </c>
+      <c r="D652">
+        <v>0</v>
+      </c>
+      <c r="E652">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="A653" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B653">
+        <v>2</v>
+      </c>
+      <c r="C653">
+        <v>3</v>
+      </c>
+      <c r="D653">
+        <v>0</v>
+      </c>
+      <c r="E653">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="A654" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B654">
+        <v>1</v>
+      </c>
+      <c r="C654">
+        <v>3</v>
+      </c>
+      <c r="D654">
+        <v>0</v>
+      </c>
+      <c r="E654">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B655">
+        <v>1</v>
+      </c>
+      <c r="C655">
+        <v>3</v>
+      </c>
+      <c r="D655">
+        <v>1</v>
+      </c>
+      <c r="E655">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B656">
+        <v>2</v>
+      </c>
+      <c r="C656">
+        <v>3</v>
+      </c>
+      <c r="D656">
+        <v>1</v>
+      </c>
+      <c r="E656">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B657">
+        <v>2</v>
+      </c>
+      <c r="C657">
+        <v>3</v>
+      </c>
+      <c r="D657">
+        <v>1</v>
+      </c>
+      <c r="E657">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B658">
+        <v>2</v>
+      </c>
+      <c r="C658">
+        <v>2</v>
+      </c>
+      <c r="D658">
+        <v>1</v>
+      </c>
+      <c r="E658">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B659">
+        <v>2</v>
+      </c>
+      <c r="C659">
+        <v>3</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
+      </c>
+      <c r="E659">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B660">
+        <v>2</v>
+      </c>
+      <c r="C660">
+        <v>2</v>
+      </c>
+      <c r="D660">
+        <v>0</v>
+      </c>
+      <c r="E660">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B661">
+        <v>1</v>
+      </c>
+      <c r="C661">
+        <v>2</v>
+      </c>
+      <c r="D661">
+        <v>0</v>
+      </c>
+      <c r="E661">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B662">
+        <v>1</v>
+      </c>
+      <c r="C662">
+        <v>2</v>
+      </c>
+      <c r="D662">
+        <v>0</v>
+      </c>
+      <c r="E662">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B663">
+        <v>1</v>
+      </c>
+      <c r="C663">
+        <v>2</v>
+      </c>
+      <c r="D663">
+        <v>1</v>
+      </c>
+      <c r="E663">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B664">
+        <v>2</v>
+      </c>
+      <c r="C664">
+        <v>3</v>
+      </c>
+      <c r="D664">
+        <v>1</v>
+      </c>
+      <c r="E664">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B665">
+        <v>4</v>
+      </c>
+      <c r="C665">
+        <v>0</v>
+      </c>
+      <c r="D665">
+        <v>0</v>
+      </c>
+      <c r="E665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B666">
+        <v>1</v>
+      </c>
+      <c r="C666">
+        <v>3</v>
+      </c>
+      <c r="D666">
+        <v>1</v>
+      </c>
+      <c r="E666">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B667">
+        <v>1</v>
+      </c>
+      <c r="C667">
+        <v>2</v>
+      </c>
+      <c r="D667">
+        <v>0</v>
+      </c>
+      <c r="E667">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B668">
+        <v>2</v>
+      </c>
+      <c r="C668">
+        <v>2</v>
+      </c>
+      <c r="D668">
+        <v>1</v>
+      </c>
+      <c r="E668">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B669">
+        <v>2</v>
+      </c>
+      <c r="C669">
+        <v>3</v>
+      </c>
+      <c r="D669">
+        <v>1</v>
+      </c>
+      <c r="E669">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B670">
+        <v>2</v>
+      </c>
+      <c r="C670">
+        <v>2</v>
+      </c>
+      <c r="D670">
+        <v>0</v>
+      </c>
+      <c r="E670">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B671">
+        <v>2</v>
+      </c>
+      <c r="C671">
+        <v>3</v>
+      </c>
+      <c r="D671">
+        <v>1</v>
+      </c>
+      <c r="E671">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B672">
+        <v>2</v>
+      </c>
+      <c r="C672">
+        <v>3</v>
+      </c>
+      <c r="D672">
+        <v>1</v>
+      </c>
+      <c r="E672">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5">
+      <c r="A673" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B673">
+        <v>2</v>
+      </c>
+      <c r="C673">
+        <v>2</v>
+      </c>
+      <c r="D673">
+        <v>0</v>
+      </c>
+      <c r="E673">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5">
+      <c r="A674" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B674">
+        <v>1</v>
+      </c>
+      <c r="C674">
+        <v>3</v>
+      </c>
+      <c r="D674">
+        <v>1</v>
+      </c>
+      <c r="E674">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5">
+      <c r="A675" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B675">
+        <v>2</v>
+      </c>
+      <c r="C675">
+        <v>2</v>
+      </c>
+      <c r="D675">
+        <v>1</v>
+      </c>
+      <c r="E675">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5">
+      <c r="A676" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B676">
+        <v>1</v>
+      </c>
+      <c r="C676">
+        <v>2</v>
+      </c>
+      <c r="D676">
+        <v>0</v>
+      </c>
+      <c r="E676">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5">
+      <c r="A677" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B677">
+        <v>3</v>
+      </c>
+      <c r="C677">
+        <v>1</v>
+      </c>
+      <c r="D677">
+        <v>0</v>
+      </c>
+      <c r="E677">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5">
+      <c r="A678" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B678">
+        <v>1</v>
+      </c>
+      <c r="C678">
+        <v>3</v>
+      </c>
+      <c r="D678">
+        <v>1</v>
+      </c>
+      <c r="E678">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5">
+      <c r="A679" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B679">
+        <v>1</v>
+      </c>
+      <c r="C679">
+        <v>2</v>
+      </c>
+      <c r="D679">
+        <v>0</v>
+      </c>
+      <c r="E679">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5">
+      <c r="A680" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B680">
+        <v>2</v>
+      </c>
+      <c r="C680">
+        <v>2</v>
+      </c>
+      <c r="D680">
+        <v>0</v>
+      </c>
+      <c r="E680">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5">
+      <c r="A681" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B681">
+        <v>2</v>
+      </c>
+      <c r="C681">
+        <v>2</v>
+      </c>
+      <c r="D681">
+        <v>1</v>
+      </c>
+      <c r="E681">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5">
+      <c r="A682" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B682">
+        <v>2</v>
+      </c>
+      <c r="C682">
+        <v>2</v>
+      </c>
+      <c r="D682">
+        <v>0</v>
+      </c>
+      <c r="E682">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5">
+      <c r="A683" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B683">
+        <v>1</v>
+      </c>
+      <c r="C683">
+        <v>2</v>
+      </c>
+      <c r="D683">
+        <v>0</v>
+      </c>
+      <c r="E683">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5">
+      <c r="A684" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B684">
+        <v>2</v>
+      </c>
+      <c r="C684">
+        <v>2</v>
+      </c>
+      <c r="D684">
+        <v>0</v>
+      </c>
+      <c r="E684">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5">
+      <c r="A685" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B685">
+        <v>1</v>
+      </c>
+      <c r="C685">
+        <v>2</v>
+      </c>
+      <c r="D685">
+        <v>0</v>
+      </c>
+      <c r="E685">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5">
+      <c r="A686" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B686">
+        <v>4</v>
+      </c>
+      <c r="C686">
+        <v>0</v>
+      </c>
+      <c r="D686">
+        <v>0</v>
+      </c>
+      <c r="E686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5">
+      <c r="A687" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B687">
+        <v>2</v>
+      </c>
+      <c r="C687">
+        <v>2</v>
+      </c>
+      <c r="D687">
+        <v>0</v>
+      </c>
+      <c r="E687">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5">
+      <c r="A688" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B688">
+        <v>1</v>
+      </c>
+      <c r="C688">
+        <v>2</v>
+      </c>
+      <c r="D688">
+        <v>1</v>
+      </c>
+      <c r="E688">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="A689" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B689">
+        <v>2</v>
+      </c>
+      <c r="C689">
+        <v>3</v>
+      </c>
+      <c r="D689">
+        <v>1</v>
+      </c>
+      <c r="E689">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="A690" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B690">
+        <v>3</v>
+      </c>
+      <c r="C690">
+        <v>0</v>
+      </c>
+      <c r="D690">
+        <v>0</v>
+      </c>
+      <c r="E690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="A691" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B691">
+        <v>1</v>
+      </c>
+      <c r="C691">
+        <v>3</v>
+      </c>
+      <c r="D691">
+        <v>0</v>
+      </c>
+      <c r="E691">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5">
+      <c r="A692" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B692">
+        <v>1</v>
+      </c>
+      <c r="C692">
+        <v>2</v>
+      </c>
+      <c r="D692">
+        <v>1</v>
+      </c>
+      <c r="E692">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5">
+      <c r="A693" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B693">
+        <v>2</v>
+      </c>
+      <c r="C693">
+        <v>2</v>
+      </c>
+      <c r="D693">
+        <v>1</v>
+      </c>
+      <c r="E693">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5">
+      <c r="A694" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B694">
+        <v>2</v>
+      </c>
+      <c r="C694">
+        <v>3</v>
+      </c>
+      <c r="D694">
+        <v>0</v>
+      </c>
+      <c r="E694">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B695">
+        <v>2</v>
+      </c>
+      <c r="C695">
+        <v>3</v>
+      </c>
+      <c r="D695">
+        <v>1</v>
+      </c>
+      <c r="E695">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5">
+      <c r="A696" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B696">
+        <v>1</v>
+      </c>
+      <c r="C696">
+        <v>2</v>
+      </c>
+      <c r="D696">
+        <v>1</v>
+      </c>
+      <c r="E696">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="A697" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B697">
+        <v>1</v>
+      </c>
+      <c r="C697">
+        <v>2</v>
+      </c>
+      <c r="D697">
+        <v>0</v>
+      </c>
+      <c r="E697">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5">
+      <c r="A698" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B698">
+        <v>1</v>
+      </c>
+      <c r="C698">
+        <v>2</v>
+      </c>
+      <c r="D698">
+        <v>0</v>
+      </c>
+      <c r="E698">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5">
+      <c r="A699" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B699">
+        <v>2</v>
+      </c>
+      <c r="C699">
+        <v>3</v>
+      </c>
+      <c r="D699">
+        <v>0</v>
+      </c>
+      <c r="E699">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5">
+      <c r="A700" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B700">
+        <v>1</v>
+      </c>
+      <c r="C700">
+        <v>3</v>
+      </c>
+      <c r="D700">
+        <v>1</v>
+      </c>
+      <c r="E700">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5">
+      <c r="A701" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B701">
+        <v>1</v>
+      </c>
+      <c r="C701">
+        <v>2</v>
+      </c>
+      <c r="D701">
+        <v>1</v>
+      </c>
+      <c r="E701">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5">
+      <c r="A702" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B702">
+        <v>1</v>
+      </c>
+      <c r="C702">
+        <v>2</v>
+      </c>
+      <c r="D702">
+        <v>1</v>
+      </c>
+      <c r="E702">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5">
+      <c r="A703" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B703">
+        <v>2</v>
+      </c>
+      <c r="C703">
+        <v>2</v>
+      </c>
+      <c r="D703">
+        <v>0</v>
+      </c>
+      <c r="E703">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5">
+      <c r="A704" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B704">
+        <v>1</v>
+      </c>
+      <c r="C704">
+        <v>2</v>
+      </c>
+      <c r="D704">
+        <v>1</v>
+      </c>
+      <c r="E704">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5">
+      <c r="A705" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B705">
+        <v>1</v>
+      </c>
+      <c r="C705">
+        <v>2</v>
+      </c>
+      <c r="D705">
+        <v>0</v>
+      </c>
+      <c r="E705">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5">
+      <c r="A706" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B706">
+        <v>2</v>
+      </c>
+      <c r="C706">
+        <v>2</v>
+      </c>
+      <c r="D706">
+        <v>0</v>
+      </c>
+      <c r="E706">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5">
+      <c r="A707" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B707">
+        <v>1</v>
+      </c>
+      <c r="C707">
+        <v>2</v>
+      </c>
+      <c r="D707">
+        <v>1</v>
+      </c>
+      <c r="E707">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5">
+      <c r="A708" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B708">
+        <v>1</v>
+      </c>
+      <c r="C708">
+        <v>2</v>
+      </c>
+      <c r="D708">
+        <v>0</v>
+      </c>
+      <c r="E708">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5">
+      <c r="A709" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B709">
+        <v>2</v>
+      </c>
+      <c r="C709">
+        <v>2</v>
+      </c>
+      <c r="D709">
+        <v>0</v>
+      </c>
+      <c r="E709">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5">
+      <c r="A710" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B710">
+        <v>2</v>
+      </c>
+      <c r="C710">
+        <v>3</v>
+      </c>
+      <c r="D710">
+        <v>1</v>
+      </c>
+      <c r="E710">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5">
+      <c r="A711" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B711">
+        <v>2</v>
+      </c>
+      <c r="C711">
+        <v>2</v>
+      </c>
+      <c r="D711">
+        <v>0</v>
+      </c>
+      <c r="E711">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5">
+      <c r="A712" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B712">
+        <v>2</v>
+      </c>
+      <c r="C712">
+        <v>2</v>
+      </c>
+      <c r="D712">
+        <v>0</v>
+      </c>
+      <c r="E712">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5">
+      <c r="A713" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B713">
+        <v>2</v>
+      </c>
+      <c r="C713">
+        <v>2</v>
+      </c>
+      <c r="D713">
+        <v>0</v>
+      </c>
+      <c r="E713">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5">
+      <c r="A714" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B714">
+        <v>1</v>
+      </c>
+      <c r="C714">
+        <v>3</v>
+      </c>
+      <c r="D714">
+        <v>1</v>
+      </c>
+      <c r="E714">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5">
+      <c r="A715" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B715">
+        <v>1</v>
+      </c>
+      <c r="C715">
+        <v>2</v>
+      </c>
+      <c r="D715">
+        <v>1</v>
+      </c>
+      <c r="E715">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5">
+      <c r="A716" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B716">
+        <v>1</v>
+      </c>
+      <c r="C716">
+        <v>2</v>
+      </c>
+      <c r="D716">
+        <v>0</v>
+      </c>
+      <c r="E716">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5">
+      <c r="A717" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B717">
+        <v>4</v>
+      </c>
+      <c r="C717">
+        <v>1</v>
+      </c>
+      <c r="D717">
+        <v>0</v>
+      </c>
+      <c r="E717">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B718">
+        <v>2</v>
+      </c>
+      <c r="C718">
+        <v>2</v>
+      </c>
+      <c r="D718">
+        <v>1</v>
+      </c>
+      <c r="E718">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5">
+      <c r="A719" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B719">
+        <v>1</v>
+      </c>
+      <c r="C719">
+        <v>3</v>
+      </c>
+      <c r="D719">
+        <v>1</v>
+      </c>
+      <c r="E719">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B720">
+        <v>2</v>
+      </c>
+      <c r="C720">
+        <v>3</v>
+      </c>
+      <c r="D720">
+        <v>0</v>
+      </c>
+      <c r="E720">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="A721" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B721">
+        <v>1</v>
+      </c>
+      <c r="C721">
+        <v>2</v>
+      </c>
+      <c r="D721">
+        <v>1</v>
+      </c>
+      <c r="E721">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5">
+      <c r="A722" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B722">
+        <v>1</v>
+      </c>
+      <c r="C722">
+        <v>2</v>
+      </c>
+      <c r="D722">
+        <v>0</v>
+      </c>
+      <c r="E722">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5">
+      <c r="A723" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B723">
+        <v>2</v>
+      </c>
+      <c r="C723">
+        <v>3</v>
+      </c>
+      <c r="D723">
+        <v>1</v>
+      </c>
+      <c r="E723">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5">
+      <c r="A724" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B724">
+        <v>2</v>
+      </c>
+      <c r="C724">
+        <v>3</v>
+      </c>
+      <c r="D724">
+        <v>0</v>
+      </c>
+      <c r="E724">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5">
+      <c r="A725" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B725">
+        <v>1</v>
+      </c>
+      <c r="C725">
+        <v>2</v>
+      </c>
+      <c r="D725">
+        <v>0</v>
+      </c>
+      <c r="E725">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5">
+      <c r="A726" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+      <c r="C726">
+        <v>2</v>
+      </c>
+      <c r="D726">
+        <v>0</v>
+      </c>
+      <c r="E726">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5">
+      <c r="A727" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B727">
+        <v>2</v>
+      </c>
+      <c r="C727">
+        <v>2</v>
+      </c>
+      <c r="D727">
+        <v>1</v>
+      </c>
+      <c r="E727">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5">
+      <c r="A728" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B728">
+        <v>2</v>
+      </c>
+      <c r="C728">
+        <v>2</v>
+      </c>
+      <c r="D728">
+        <v>0</v>
+      </c>
+      <c r="E728">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5">
+      <c r="A729" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B729">
+        <v>2</v>
+      </c>
+      <c r="C729">
+        <v>2</v>
+      </c>
+      <c r="D729">
+        <v>1</v>
+      </c>
+      <c r="E729">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5">
+      <c r="A730" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B730">
+        <v>1</v>
+      </c>
+      <c r="C730">
+        <v>2</v>
+      </c>
+      <c r="D730">
+        <v>0</v>
+      </c>
+      <c r="E730">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5">
+      <c r="A731" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B731">
+        <v>1</v>
+      </c>
+      <c r="C731">
+        <v>3</v>
+      </c>
+      <c r="D731">
+        <v>0</v>
+      </c>
+      <c r="E731">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5">
+      <c r="A732" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B732">
+        <v>1</v>
+      </c>
+      <c r="C732">
+        <v>2</v>
+      </c>
+      <c r="D732">
+        <v>1</v>
+      </c>
+      <c r="E732">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5">
+      <c r="A733" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B733">
+        <v>2</v>
+      </c>
+      <c r="C733">
+        <v>2</v>
+      </c>
+      <c r="D733">
+        <v>0</v>
+      </c>
+      <c r="E733">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5">
+      <c r="A734" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B734">
+        <v>2</v>
+      </c>
+      <c r="C734">
+        <v>2</v>
+      </c>
+      <c r="D734">
+        <v>0</v>
+      </c>
+      <c r="E734">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5">
+      <c r="A735" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B735">
+        <v>2</v>
+      </c>
+      <c r="C735">
+        <v>3</v>
+      </c>
+      <c r="D735">
+        <v>1</v>
+      </c>
+      <c r="E735">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5">
+      <c r="A736" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B736">
+        <v>2</v>
+      </c>
+      <c r="C736">
+        <v>2</v>
+      </c>
+      <c r="D736">
+        <v>1</v>
+      </c>
+      <c r="E736">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/PARTITE_dataset/matches_dataset_data.xlsx
+++ b/DATA/PARTITE_dataset/matches_dataset_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="814">
   <si>
     <t>SEGNO</t>
   </si>
@@ -2231,6 +2231,231 @@
   </si>
   <si>
     <t>F_MEDVEDEV_KYRGIOS_3_WASHINGTON_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KWON_LONDERO_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NORRIE_KUKUSHKIN_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DANIEL_ALBOT_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GUNNESWARAN_FRITZ_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_POUILLE_KOKKINAKIS_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GULBIS_SCHWARTZMAN_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DIMITROV_PELLA_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FOGNINI_GRANOLLERS_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ALBOT_KOKKINAKIS_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SCHWARTZMAN_KUKUSHKIN_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KWON_PELLA_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_FOGNINI_FRITZ_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_ALBOT_FRITZ_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_PELLA_SCHWARTZMAN_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_FRITZ_SCHWARTZMAN_3_LosCABOS_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HURKACZ_MONFILS_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GASQUET_BAUTISTA_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GARIN_MEDVEDEV_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MANNARINO_FOGNINI_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KHACHANOV_ALIASSIME_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ZVEREV_BASILASHVILI_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CILIC_THIEM_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_PELLA_NADAL_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BAUTISTA_MONFILS_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_ZVEREV_KHACHANOV_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_THIEM_MEDVEDEV_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_FOGNINI_NADAL_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_MEDVEDEV_KHACHANOV_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_NADAL_MONFILS_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_NADAL_MEDVEDEV_3_CANADA_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_NISHIOKA_DeMINAUR_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GASQUET_SCHWARTZMAN_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOFFIN_MANNARINO_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KECMANOVIC_BAUTISTA_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_STRUFF_MEDVEDEV_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_POUILLE_KHACHANOV_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FEDERER_RUBLEV_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DJOKOVIC_CARRENO_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_GOFFIN_NISHIOKA_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_GASQUET_BAUTISTA_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MEDVEDEV_RUBLEV_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DJOKOVIC_POUILLE_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_GASQUET_GOFFIN_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_DJOKOVIC_MEDVEDEV_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_GOFFIN_MEDVEDEV_3_CINCINNATI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MILLMAN_HAASE_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_JOHNSON_RUUD_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KRAJINOVIC_TIAFOE_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CARRENO_SONEGO_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_QUERREY_RUBLEV_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_LOPEZ_HURKACZ_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KECMANOVIC_SHAPOVALOV_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HUMBERT_PAIRE_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MILLMAN_JOHNSON_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_TIAFOE_HURKACZ_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_RUBLEV_SHAPOVALOV_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_PAIRE_CARRENO_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_HURKACZ_SHAPOVALOV_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_JOHNSON_PAIRE_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_PAIRE_HURKACZ_3_WinstonSALEM_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_RUUD_CARUSO_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GERASIMOV_MANNARINO_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KUKUSHKIN_DZUMHUR_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BERANKIS_RUBLEV_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FUCSOVICS_CORIC_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BERRETTINI_CarballesBAENA_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KHACHANOV_SOUSA_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DONSKOY_MEDVEDEV_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SOUSA_KUKUSHKIN_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_CORIC_RUUD_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BERRETTINI_GERASIMOV_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_RUBLEV_MEDVEDEV_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_CORIC_SOUSA_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_MEDVEDEV_GERASIMOV_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_CORIC_MEDVEDEV_3_SanPIETROBURGO_2019_HARD</t>
   </si>
 </sst>
 </file>
@@ -2588,7 +2813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E736"/>
+  <dimension ref="A1:E811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15103,6 +15328,1281 @@
         <v>26</v>
       </c>
     </row>
+    <row r="737" spans="1:5">
+      <c r="A737" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B737">
+        <v>1</v>
+      </c>
+      <c r="C737">
+        <v>3</v>
+      </c>
+      <c r="D737">
+        <v>0</v>
+      </c>
+      <c r="E737">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5">
+      <c r="A738" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B738">
+        <v>2</v>
+      </c>
+      <c r="C738">
+        <v>2</v>
+      </c>
+      <c r="D738">
+        <v>0</v>
+      </c>
+      <c r="E738">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5">
+      <c r="A739" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B739">
+        <v>2</v>
+      </c>
+      <c r="C739">
+        <v>2</v>
+      </c>
+      <c r="D739">
+        <v>0</v>
+      </c>
+      <c r="E739">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5">
+      <c r="A740" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B740">
+        <v>2</v>
+      </c>
+      <c r="C740">
+        <v>3</v>
+      </c>
+      <c r="D740">
+        <v>0</v>
+      </c>
+      <c r="E740">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5">
+      <c r="A741" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B741">
+        <v>2</v>
+      </c>
+      <c r="C741">
+        <v>3</v>
+      </c>
+      <c r="D741">
+        <v>0</v>
+      </c>
+      <c r="E741">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5">
+      <c r="A742" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B742">
+        <v>2</v>
+      </c>
+      <c r="C742">
+        <v>2</v>
+      </c>
+      <c r="D742">
+        <v>0</v>
+      </c>
+      <c r="E742">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5">
+      <c r="A743" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B743">
+        <v>2</v>
+      </c>
+      <c r="C743">
+        <v>2</v>
+      </c>
+      <c r="D743">
+        <v>0</v>
+      </c>
+      <c r="E743">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5">
+      <c r="A744" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B744">
+        <v>1</v>
+      </c>
+      <c r="C744">
+        <v>3</v>
+      </c>
+      <c r="D744">
+        <v>0</v>
+      </c>
+      <c r="E744">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5">
+      <c r="A745" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B745">
+        <v>1</v>
+      </c>
+      <c r="C745">
+        <v>2</v>
+      </c>
+      <c r="D745">
+        <v>0</v>
+      </c>
+      <c r="E745">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5">
+      <c r="A746" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B746">
+        <v>1</v>
+      </c>
+      <c r="C746">
+        <v>2</v>
+      </c>
+      <c r="D746">
+        <v>0</v>
+      </c>
+      <c r="E746">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5">
+      <c r="A747" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B747">
+        <v>2</v>
+      </c>
+      <c r="C747">
+        <v>3</v>
+      </c>
+      <c r="D747">
+        <v>0</v>
+      </c>
+      <c r="E747">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5">
+      <c r="A748" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B748">
+        <v>2</v>
+      </c>
+      <c r="C748">
+        <v>2</v>
+      </c>
+      <c r="D748">
+        <v>1</v>
+      </c>
+      <c r="E748">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5">
+      <c r="A749" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B749">
+        <v>2</v>
+      </c>
+      <c r="C749">
+        <v>2</v>
+      </c>
+      <c r="D749">
+        <v>0</v>
+      </c>
+      <c r="E749">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5">
+      <c r="A750" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B750">
+        <v>2</v>
+      </c>
+      <c r="C750">
+        <v>3</v>
+      </c>
+      <c r="D750">
+        <v>0</v>
+      </c>
+      <c r="E750">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5">
+      <c r="A751" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B751">
+        <v>2</v>
+      </c>
+      <c r="C751">
+        <v>2</v>
+      </c>
+      <c r="D751">
+        <v>1</v>
+      </c>
+      <c r="E751">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5">
+      <c r="A752" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B752">
+        <v>2</v>
+      </c>
+      <c r="C752">
+        <v>2</v>
+      </c>
+      <c r="D752">
+        <v>0</v>
+      </c>
+      <c r="E752">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5">
+      <c r="A753" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B753">
+        <v>2</v>
+      </c>
+      <c r="C753">
+        <v>2</v>
+      </c>
+      <c r="D753">
+        <v>0</v>
+      </c>
+      <c r="E753">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5">
+      <c r="A754" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B754">
+        <v>2</v>
+      </c>
+      <c r="C754">
+        <v>2</v>
+      </c>
+      <c r="D754">
+        <v>0</v>
+      </c>
+      <c r="E754">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5">
+      <c r="A755" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B755">
+        <v>2</v>
+      </c>
+      <c r="C755">
+        <v>2</v>
+      </c>
+      <c r="D755">
+        <v>0</v>
+      </c>
+      <c r="E755">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="A756" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B756">
+        <v>1</v>
+      </c>
+      <c r="C756">
+        <v>3</v>
+      </c>
+      <c r="D756">
+        <v>1</v>
+      </c>
+      <c r="E756">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="A757" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B757">
+        <v>1</v>
+      </c>
+      <c r="C757">
+        <v>3</v>
+      </c>
+      <c r="D757">
+        <v>1</v>
+      </c>
+      <c r="E757">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5">
+      <c r="A758" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B758">
+        <v>2</v>
+      </c>
+      <c r="C758">
+        <v>2</v>
+      </c>
+      <c r="D758">
+        <v>1</v>
+      </c>
+      <c r="E758">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5">
+      <c r="A759" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B759">
+        <v>2</v>
+      </c>
+      <c r="C759">
+        <v>2</v>
+      </c>
+      <c r="D759">
+        <v>0</v>
+      </c>
+      <c r="E759">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="A760" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B760">
+        <v>2</v>
+      </c>
+      <c r="C760">
+        <v>3</v>
+      </c>
+      <c r="D760">
+        <v>1</v>
+      </c>
+      <c r="E760">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5">
+      <c r="A761" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B761">
+        <v>2</v>
+      </c>
+      <c r="C761">
+        <v>2</v>
+      </c>
+      <c r="D761">
+        <v>0</v>
+      </c>
+      <c r="E761">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5">
+      <c r="A762" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B762">
+        <v>2</v>
+      </c>
+      <c r="C762">
+        <v>2</v>
+      </c>
+      <c r="D762">
+        <v>0</v>
+      </c>
+      <c r="E762">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5">
+      <c r="A763" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B763">
+        <v>2</v>
+      </c>
+      <c r="C763">
+        <v>3</v>
+      </c>
+      <c r="D763">
+        <v>0</v>
+      </c>
+      <c r="E763">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="A764" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B764">
+        <v>1</v>
+      </c>
+      <c r="C764">
+        <v>2</v>
+      </c>
+      <c r="D764">
+        <v>1</v>
+      </c>
+      <c r="E764">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5">
+      <c r="A765" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B765">
+        <v>3</v>
+      </c>
+      <c r="C765">
+        <v>0</v>
+      </c>
+      <c r="D765">
+        <v>0</v>
+      </c>
+      <c r="E765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5">
+      <c r="A766" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B766">
+        <v>1</v>
+      </c>
+      <c r="C766">
+        <v>2</v>
+      </c>
+      <c r="D766">
+        <v>0</v>
+      </c>
+      <c r="E766">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5">
+      <c r="A767" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B767">
+        <v>1</v>
+      </c>
+      <c r="C767">
+        <v>2</v>
+      </c>
+      <c r="D767">
+        <v>0</v>
+      </c>
+      <c r="E767">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5">
+      <c r="A768" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B768">
+        <v>1</v>
+      </c>
+      <c r="C768">
+        <v>2</v>
+      </c>
+      <c r="D768">
+        <v>1</v>
+      </c>
+      <c r="E768">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5">
+      <c r="A769" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B769">
+        <v>1</v>
+      </c>
+      <c r="C769">
+        <v>2</v>
+      </c>
+      <c r="D769">
+        <v>1</v>
+      </c>
+      <c r="E769">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="A770" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B770">
+        <v>2</v>
+      </c>
+      <c r="C770">
+        <v>2</v>
+      </c>
+      <c r="D770">
+        <v>0</v>
+      </c>
+      <c r="E770">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5">
+      <c r="A771" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B771">
+        <v>2</v>
+      </c>
+      <c r="C771">
+        <v>2</v>
+      </c>
+      <c r="D771">
+        <v>0</v>
+      </c>
+      <c r="E771">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5">
+      <c r="A772" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B772">
+        <v>1</v>
+      </c>
+      <c r="C772">
+        <v>3</v>
+      </c>
+      <c r="D772">
+        <v>1</v>
+      </c>
+      <c r="E772">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5">
+      <c r="A773" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B773">
+        <v>2</v>
+      </c>
+      <c r="C773">
+        <v>2</v>
+      </c>
+      <c r="D773">
+        <v>0</v>
+      </c>
+      <c r="E773">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5">
+      <c r="A774" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B774">
+        <v>1</v>
+      </c>
+      <c r="C774">
+        <v>2</v>
+      </c>
+      <c r="D774">
+        <v>0</v>
+      </c>
+      <c r="E774">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5">
+      <c r="A775" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B775">
+        <v>3</v>
+      </c>
+      <c r="C775">
+        <v>0</v>
+      </c>
+      <c r="D775">
+        <v>0</v>
+      </c>
+      <c r="E775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5">
+      <c r="A776" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B776">
+        <v>1</v>
+      </c>
+      <c r="C776">
+        <v>3</v>
+      </c>
+      <c r="D776">
+        <v>1</v>
+      </c>
+      <c r="E776">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5">
+      <c r="A777" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B777">
+        <v>1</v>
+      </c>
+      <c r="C777">
+        <v>2</v>
+      </c>
+      <c r="D777">
+        <v>0</v>
+      </c>
+      <c r="E777">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5">
+      <c r="A778" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B778">
+        <v>1</v>
+      </c>
+      <c r="C778">
+        <v>2</v>
+      </c>
+      <c r="D778">
+        <v>1</v>
+      </c>
+      <c r="E778">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5">
+      <c r="A779" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B779">
+        <v>2</v>
+      </c>
+      <c r="C779">
+        <v>2</v>
+      </c>
+      <c r="D779">
+        <v>0</v>
+      </c>
+      <c r="E779">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5">
+      <c r="A780" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B780">
+        <v>2</v>
+      </c>
+      <c r="C780">
+        <v>3</v>
+      </c>
+      <c r="D780">
+        <v>0</v>
+      </c>
+      <c r="E780">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5">
+      <c r="A781" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B781">
+        <v>2</v>
+      </c>
+      <c r="C781">
+        <v>2</v>
+      </c>
+      <c r="D781">
+        <v>1</v>
+      </c>
+      <c r="E781">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5">
+      <c r="A782" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B782">
+        <v>1</v>
+      </c>
+      <c r="C782">
+        <v>2</v>
+      </c>
+      <c r="D782">
+        <v>0</v>
+      </c>
+      <c r="E782">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5">
+      <c r="A783" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B783">
+        <v>1</v>
+      </c>
+      <c r="C783">
+        <v>2</v>
+      </c>
+      <c r="D783">
+        <v>1</v>
+      </c>
+      <c r="E783">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5">
+      <c r="A784" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B784">
+        <v>4</v>
+      </c>
+      <c r="C784">
+        <v>1</v>
+      </c>
+      <c r="D784">
+        <v>0</v>
+      </c>
+      <c r="E784">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5">
+      <c r="A785" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B785">
+        <v>1</v>
+      </c>
+      <c r="C785">
+        <v>2</v>
+      </c>
+      <c r="D785">
+        <v>1</v>
+      </c>
+      <c r="E785">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5">
+      <c r="A786" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B786">
+        <v>2</v>
+      </c>
+      <c r="C786">
+        <v>2</v>
+      </c>
+      <c r="D786">
+        <v>1</v>
+      </c>
+      <c r="E786">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5">
+      <c r="A787" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B787">
+        <v>4</v>
+      </c>
+      <c r="C787">
+        <v>1</v>
+      </c>
+      <c r="D787">
+        <v>0</v>
+      </c>
+      <c r="E787">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5">
+      <c r="A788" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B788">
+        <v>2</v>
+      </c>
+      <c r="C788">
+        <v>2</v>
+      </c>
+      <c r="D788">
+        <v>0</v>
+      </c>
+      <c r="E788">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5">
+      <c r="A789" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B789">
+        <v>2</v>
+      </c>
+      <c r="C789">
+        <v>3</v>
+      </c>
+      <c r="D789">
+        <v>1</v>
+      </c>
+      <c r="E789">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5">
+      <c r="A790" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B790">
+        <v>2</v>
+      </c>
+      <c r="C790">
+        <v>3</v>
+      </c>
+      <c r="D790">
+        <v>1</v>
+      </c>
+      <c r="E790">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5">
+      <c r="A791" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B791">
+        <v>2</v>
+      </c>
+      <c r="C791">
+        <v>3</v>
+      </c>
+      <c r="D791">
+        <v>1</v>
+      </c>
+      <c r="E791">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5">
+      <c r="A792" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B792">
+        <v>2</v>
+      </c>
+      <c r="C792">
+        <v>2</v>
+      </c>
+      <c r="D792">
+        <v>1</v>
+      </c>
+      <c r="E792">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5">
+      <c r="A793" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B793">
+        <v>1</v>
+      </c>
+      <c r="C793">
+        <v>3</v>
+      </c>
+      <c r="D793">
+        <v>1</v>
+      </c>
+      <c r="E793">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5">
+      <c r="A794" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B794">
+        <v>1</v>
+      </c>
+      <c r="C794">
+        <v>2</v>
+      </c>
+      <c r="D794">
+        <v>0</v>
+      </c>
+      <c r="E794">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5">
+      <c r="A795" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B795">
+        <v>2</v>
+      </c>
+      <c r="C795">
+        <v>3</v>
+      </c>
+      <c r="D795">
+        <v>0</v>
+      </c>
+      <c r="E795">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5">
+      <c r="A796" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B796">
+        <v>2</v>
+      </c>
+      <c r="C796">
+        <v>3</v>
+      </c>
+      <c r="D796">
+        <v>0</v>
+      </c>
+      <c r="E796">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5">
+      <c r="A797" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B797">
+        <v>1</v>
+      </c>
+      <c r="C797">
+        <v>2</v>
+      </c>
+      <c r="D797">
+        <v>0</v>
+      </c>
+      <c r="E797">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5">
+      <c r="A798" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B798">
+        <v>1</v>
+      </c>
+      <c r="C798">
+        <v>2</v>
+      </c>
+      <c r="D798">
+        <v>0</v>
+      </c>
+      <c r="E798">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5">
+      <c r="A799" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B799">
+        <v>1</v>
+      </c>
+      <c r="C799">
+        <v>2</v>
+      </c>
+      <c r="D799">
+        <v>1</v>
+      </c>
+      <c r="E799">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5">
+      <c r="A800" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B800">
+        <v>2</v>
+      </c>
+      <c r="C800">
+        <v>3</v>
+      </c>
+      <c r="D800">
+        <v>1</v>
+      </c>
+      <c r="E800">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5">
+      <c r="A801" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B801">
+        <v>4</v>
+      </c>
+      <c r="C801">
+        <v>2</v>
+      </c>
+      <c r="D801">
+        <v>1</v>
+      </c>
+      <c r="E801">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5">
+      <c r="A802" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B802">
+        <v>1</v>
+      </c>
+      <c r="C802">
+        <v>2</v>
+      </c>
+      <c r="D802">
+        <v>0</v>
+      </c>
+      <c r="E802">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5">
+      <c r="A803" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B803">
+        <v>2</v>
+      </c>
+      <c r="C803">
+        <v>2</v>
+      </c>
+      <c r="D803">
+        <v>1</v>
+      </c>
+      <c r="E803">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5">
+      <c r="A804" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B804">
+        <v>2</v>
+      </c>
+      <c r="C804">
+        <v>2</v>
+      </c>
+      <c r="D804">
+        <v>0</v>
+      </c>
+      <c r="E804">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5">
+      <c r="A805" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B805">
+        <v>1</v>
+      </c>
+      <c r="C805">
+        <v>2</v>
+      </c>
+      <c r="D805">
+        <v>1</v>
+      </c>
+      <c r="E805">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5">
+      <c r="A806" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B806">
+        <v>1</v>
+      </c>
+      <c r="C806">
+        <v>3</v>
+      </c>
+      <c r="D806">
+        <v>0</v>
+      </c>
+      <c r="E806">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5">
+      <c r="A807" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B807">
+        <v>2</v>
+      </c>
+      <c r="C807">
+        <v>2</v>
+      </c>
+      <c r="D807">
+        <v>1</v>
+      </c>
+      <c r="E807">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5">
+      <c r="A808" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B808">
+        <v>2</v>
+      </c>
+      <c r="C808">
+        <v>2</v>
+      </c>
+      <c r="D808">
+        <v>0</v>
+      </c>
+      <c r="E808">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5">
+      <c r="A809" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B809">
+        <v>1</v>
+      </c>
+      <c r="C809">
+        <v>3</v>
+      </c>
+      <c r="D809">
+        <v>1</v>
+      </c>
+      <c r="E809">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5">
+      <c r="A810" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B810">
+        <v>1</v>
+      </c>
+      <c r="C810">
+        <v>2</v>
+      </c>
+      <c r="D810">
+        <v>0</v>
+      </c>
+      <c r="E810">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5">
+      <c r="A811" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B811">
+        <v>2</v>
+      </c>
+      <c r="C811">
+        <v>2</v>
+      </c>
+      <c r="D811">
+        <v>0</v>
+      </c>
+      <c r="E811">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/PARTITE_dataset/matches_dataset_data.xlsx
+++ b/DATA/PARTITE_dataset/matches_dataset_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="904">
   <si>
     <t>SEGNO</t>
   </si>
@@ -2456,6 +2456,276 @@
   </si>
   <si>
     <t>F_CORIC_MEDVEDEV_3_SanPIETROBURGO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TSONGA_HERBERT_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HOANG_BARRERE_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SIMON_BEDENE_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_VERDASCO_KRAJINOVIC_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SONEGO_POUILLE_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GASQUET_PAIRE_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BASILASHVILI_MADEN_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOFFIN_CARRENO_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BEDENE_CARRENO_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_KRAJINOVIC_POUILLE_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_PAIRE_BARRERE_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_TSONGA_BASILASHVILI_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_POUILLE_TSONGA_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_PAIRE_BEDENE_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_TSONGA_BEDENE_3_METZ_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GARIN_VERDASCO_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BUBLIK_THOMPSON_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SHAPOVALOV_KLAHN_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_HARRIS_LAJOVIC_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DIMITROV_EVANS_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CARRENO_PAIRE_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALIASSIME_SOUSA_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GERASIMOV_ISNER_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SOUSA_HARRIS_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_GARIN_CARRENO_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SHAPOVALOV_GERASIMOV_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DIMITROV_BUBLIK_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_BUBLIK_HARRIS_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_CARRENO_SHAPOVALOV_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_BUBLIK_CARRENO_3_CHENGDU_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ZHANG_SEPPI_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_KWON_DZUMHUR_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_VINOLAS_KECMANOVIC_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DeMINAUR_MURRAY_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_WU_CORIC_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MONFILS_NORRIE_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ANDUJAR_BAUTISTA_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TSITSIPAS_MANNARINO_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_MANNARINO_DZUMHUR_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_CORIC_DeMINAUR_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_VINOLAS_MONFILS_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_SEPPI_BAUTISTA_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_VINOLAS_MANNARINO_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_BAUTISTA_DeMINAUR_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_DeMINAUR_MANNARINO_3_ZHUHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_QUERREY_SCHWARTZMAN_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MURRAY_NORRIE_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_EVANS_ISNER_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_RUBLEV_FOGNINI_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CHARDY_KHACHANOV_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BASILASHVILI_TSITSIPAS_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ALIASSIME_ZVEREV_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ZHANG_THIEM_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_FOGNINI_KHACHANOV_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_TSITSIPAS_ISNER_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_QUERREY_ZVEREV_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_THIEM_MURRAY_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_ZVEREV_TSITSIPAS_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_KHACHANOV_THIEM_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_THIEM_TSITSIPAS_3_PECHINO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_UCHIYAMA_ALBOT_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_OPELKA_SIMON_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MILLMAN_HARRIS_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_DANIEL_THOMPSON_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_CILIC_CHUNG_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_POUILLE_NISHIOKA_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SHAPOVALOV_GOFFIN_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_SOEDA_DJOKOVIC_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_OPELKA_UCHIYAMA_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DANIEL_MILLMAN_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_CHUNG_GOFFIN_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_POUILLE_DJOKOVIC_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_MILLMAN_OPELKA_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_GOFFIN_DJOKOVIC_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_MILLMAN_DJOKOVIC_3_TOKYO_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_BERRETTINI_BAUTISTA_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_FOGNINI_KHACHANOV_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_TSITSIPAS_HURKACZ_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_RUBLEV_ZVEREV_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_THIEM_BASILASHVILI_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_MEDVEDEV_POSPISIL_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_GOFFIN_FEDERER_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>OTT_ISNER_DJOKOVIC_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_BERRETTINI_THIEM_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_FOGNINI_MEDVEDEV_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_FEDERER_ZVEREV_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>QRT_DJOKOVIC_TSITSIPAS_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_ZVEREV_BERRETTINI_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>SF_MEDVEDEV_TSITSIPAS_3_SHANGHAI_2019_HARD</t>
+  </si>
+  <si>
+    <t>F_MEDVEDEV_ZVEREV_3_SHANGHAI_2019_HARD</t>
   </si>
 </sst>
 </file>
@@ -2813,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E811"/>
+  <dimension ref="A1:E901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16603,6 +16873,1536 @@
         <v>16</v>
       </c>
     </row>
+    <row r="812" spans="1:5">
+      <c r="A812" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B812">
+        <v>1</v>
+      </c>
+      <c r="C812">
+        <v>2</v>
+      </c>
+      <c r="D812">
+        <v>0</v>
+      </c>
+      <c r="E812">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5">
+      <c r="A813" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B813">
+        <v>2</v>
+      </c>
+      <c r="C813">
+        <v>3</v>
+      </c>
+      <c r="D813">
+        <v>1</v>
+      </c>
+      <c r="E813">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5">
+      <c r="A814" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B814">
+        <v>2</v>
+      </c>
+      <c r="C814">
+        <v>2</v>
+      </c>
+      <c r="D814">
+        <v>1</v>
+      </c>
+      <c r="E814">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5">
+      <c r="A815" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B815">
+        <v>2</v>
+      </c>
+      <c r="C815">
+        <v>3</v>
+      </c>
+      <c r="D815">
+        <v>0</v>
+      </c>
+      <c r="E815">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5">
+      <c r="A816" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B816">
+        <v>2</v>
+      </c>
+      <c r="C816">
+        <v>2</v>
+      </c>
+      <c r="D816">
+        <v>0</v>
+      </c>
+      <c r="E816">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5">
+      <c r="A817" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B817">
+        <v>2</v>
+      </c>
+      <c r="C817">
+        <v>3</v>
+      </c>
+      <c r="D817">
+        <v>0</v>
+      </c>
+      <c r="E817">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5">
+      <c r="A818" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B818">
+        <v>1</v>
+      </c>
+      <c r="C818">
+        <v>2</v>
+      </c>
+      <c r="D818">
+        <v>1</v>
+      </c>
+      <c r="E818">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5">
+      <c r="A819" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B819">
+        <v>2</v>
+      </c>
+      <c r="C819">
+        <v>2</v>
+      </c>
+      <c r="D819">
+        <v>0</v>
+      </c>
+      <c r="E819">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5">
+      <c r="A820" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B820">
+        <v>1</v>
+      </c>
+      <c r="C820">
+        <v>2</v>
+      </c>
+      <c r="D820">
+        <v>0</v>
+      </c>
+      <c r="E820">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5">
+      <c r="A821" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B821">
+        <v>2</v>
+      </c>
+      <c r="C821">
+        <v>3</v>
+      </c>
+      <c r="D821">
+        <v>0</v>
+      </c>
+      <c r="E821">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5">
+      <c r="A822" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B822">
+        <v>1</v>
+      </c>
+      <c r="C822">
+        <v>2</v>
+      </c>
+      <c r="D822">
+        <v>1</v>
+      </c>
+      <c r="E822">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5">
+      <c r="A823" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B823">
+        <v>3</v>
+      </c>
+      <c r="C823">
+        <v>2</v>
+      </c>
+      <c r="D823">
+        <v>0</v>
+      </c>
+      <c r="E823">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5">
+      <c r="A824" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B824">
+        <v>2</v>
+      </c>
+      <c r="C824">
+        <v>2</v>
+      </c>
+      <c r="D824">
+        <v>1</v>
+      </c>
+      <c r="E824">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5">
+      <c r="A825" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B825">
+        <v>2</v>
+      </c>
+      <c r="C825">
+        <v>3</v>
+      </c>
+      <c r="D825">
+        <v>0</v>
+      </c>
+      <c r="E825">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5">
+      <c r="A826" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B826">
+        <v>1</v>
+      </c>
+      <c r="C826">
+        <v>3</v>
+      </c>
+      <c r="D826">
+        <v>1</v>
+      </c>
+      <c r="E826">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5">
+      <c r="A827" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B827">
+        <v>1</v>
+      </c>
+      <c r="C827">
+        <v>3</v>
+      </c>
+      <c r="D827">
+        <v>0</v>
+      </c>
+      <c r="E827">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5">
+      <c r="A828" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B828">
+        <v>1</v>
+      </c>
+      <c r="C828">
+        <v>2</v>
+      </c>
+      <c r="D828">
+        <v>0</v>
+      </c>
+      <c r="E828">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5">
+      <c r="A829" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B829">
+        <v>1</v>
+      </c>
+      <c r="C829">
+        <v>3</v>
+      </c>
+      <c r="D829">
+        <v>1</v>
+      </c>
+      <c r="E829">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5">
+      <c r="A830" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B830">
+        <v>1</v>
+      </c>
+      <c r="C830">
+        <v>2</v>
+      </c>
+      <c r="D830">
+        <v>0</v>
+      </c>
+      <c r="E830">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5">
+      <c r="A831" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B831">
+        <v>1</v>
+      </c>
+      <c r="C831">
+        <v>2</v>
+      </c>
+      <c r="D831">
+        <v>0</v>
+      </c>
+      <c r="E831">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5">
+      <c r="A832" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B832">
+        <v>1</v>
+      </c>
+      <c r="C832">
+        <v>3</v>
+      </c>
+      <c r="D832">
+        <v>0</v>
+      </c>
+      <c r="E832">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5">
+      <c r="A833" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B833">
+        <v>2</v>
+      </c>
+      <c r="C833">
+        <v>3</v>
+      </c>
+      <c r="D833">
+        <v>1</v>
+      </c>
+      <c r="E833">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5">
+      <c r="A834" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B834">
+        <v>1</v>
+      </c>
+      <c r="C834">
+        <v>3</v>
+      </c>
+      <c r="D834">
+        <v>1</v>
+      </c>
+      <c r="E834">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5">
+      <c r="A835" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B835">
+        <v>2</v>
+      </c>
+      <c r="C835">
+        <v>3</v>
+      </c>
+      <c r="D835">
+        <v>1</v>
+      </c>
+      <c r="E835">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5">
+      <c r="A836" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B836">
+        <v>2</v>
+      </c>
+      <c r="C836">
+        <v>2</v>
+      </c>
+      <c r="D836">
+        <v>0</v>
+      </c>
+      <c r="E836">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5">
+      <c r="A837" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B837">
+        <v>1</v>
+      </c>
+      <c r="C837">
+        <v>3</v>
+      </c>
+      <c r="D837">
+        <v>0</v>
+      </c>
+      <c r="E837">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5">
+      <c r="A838" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B838">
+        <v>2</v>
+      </c>
+      <c r="C838">
+        <v>3</v>
+      </c>
+      <c r="D838">
+        <v>1</v>
+      </c>
+      <c r="E838">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5">
+      <c r="A839" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B839">
+        <v>1</v>
+      </c>
+      <c r="C839">
+        <v>2</v>
+      </c>
+      <c r="D839">
+        <v>1</v>
+      </c>
+      <c r="E839">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5">
+      <c r="A840" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B840">
+        <v>1</v>
+      </c>
+      <c r="C840">
+        <v>2</v>
+      </c>
+      <c r="D840">
+        <v>0</v>
+      </c>
+      <c r="E840">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5">
+      <c r="A841" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B841">
+        <v>2</v>
+      </c>
+      <c r="C841">
+        <v>3</v>
+      </c>
+      <c r="D841">
+        <v>1</v>
+      </c>
+      <c r="E841">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5">
+      <c r="A842" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B842">
+        <v>2</v>
+      </c>
+      <c r="C842">
+        <v>3</v>
+      </c>
+      <c r="D842">
+        <v>1</v>
+      </c>
+      <c r="E842">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5">
+      <c r="A843" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B843">
+        <v>2</v>
+      </c>
+      <c r="C843">
+        <v>2</v>
+      </c>
+      <c r="D843">
+        <v>1</v>
+      </c>
+      <c r="E843">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5">
+      <c r="A844" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B844">
+        <v>1</v>
+      </c>
+      <c r="C844">
+        <v>2</v>
+      </c>
+      <c r="D844">
+        <v>1</v>
+      </c>
+      <c r="E844">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5">
+      <c r="A845" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B845">
+        <v>1</v>
+      </c>
+      <c r="C845">
+        <v>3</v>
+      </c>
+      <c r="D845">
+        <v>0</v>
+      </c>
+      <c r="E845">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5">
+      <c r="A846" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B846">
+        <v>2</v>
+      </c>
+      <c r="C846">
+        <v>2</v>
+      </c>
+      <c r="D846">
+        <v>0</v>
+      </c>
+      <c r="E846">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5">
+      <c r="A847" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B847">
+        <v>1</v>
+      </c>
+      <c r="C847">
+        <v>3</v>
+      </c>
+      <c r="D847">
+        <v>0</v>
+      </c>
+      <c r="E847">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5">
+      <c r="A848" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B848">
+        <v>2</v>
+      </c>
+      <c r="C848">
+        <v>2</v>
+      </c>
+      <c r="D848">
+        <v>0</v>
+      </c>
+      <c r="E848">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5">
+      <c r="A849" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B849">
+        <v>4</v>
+      </c>
+      <c r="C849">
+        <v>2</v>
+      </c>
+      <c r="D849">
+        <v>0</v>
+      </c>
+      <c r="E849">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5">
+      <c r="A850" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B850">
+        <v>1</v>
+      </c>
+      <c r="C850">
+        <v>2</v>
+      </c>
+      <c r="D850">
+        <v>0</v>
+      </c>
+      <c r="E850">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5">
+      <c r="A851" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B851">
+        <v>2</v>
+      </c>
+      <c r="C851">
+        <v>3</v>
+      </c>
+      <c r="D851">
+        <v>0</v>
+      </c>
+      <c r="E851">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5">
+      <c r="A852" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B852">
+        <v>1</v>
+      </c>
+      <c r="C852">
+        <v>2</v>
+      </c>
+      <c r="D852">
+        <v>0</v>
+      </c>
+      <c r="E852">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5">
+      <c r="A853" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B853">
+        <v>2</v>
+      </c>
+      <c r="C853">
+        <v>2</v>
+      </c>
+      <c r="D853">
+        <v>0</v>
+      </c>
+      <c r="E853">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5">
+      <c r="A854" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B854">
+        <v>2</v>
+      </c>
+      <c r="C854">
+        <v>3</v>
+      </c>
+      <c r="D854">
+        <v>0</v>
+      </c>
+      <c r="E854">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5">
+      <c r="A855" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B855">
+        <v>2</v>
+      </c>
+      <c r="C855">
+        <v>2</v>
+      </c>
+      <c r="D855">
+        <v>0</v>
+      </c>
+      <c r="E855">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5">
+      <c r="A856" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B856">
+        <v>1</v>
+      </c>
+      <c r="C856">
+        <v>2</v>
+      </c>
+      <c r="D856">
+        <v>1</v>
+      </c>
+      <c r="E856">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5">
+      <c r="A857" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B857">
+        <v>1</v>
+      </c>
+      <c r="C857">
+        <v>3</v>
+      </c>
+      <c r="D857">
+        <v>1</v>
+      </c>
+      <c r="E857">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5">
+      <c r="A858" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B858">
+        <v>1</v>
+      </c>
+      <c r="C858">
+        <v>3</v>
+      </c>
+      <c r="D858">
+        <v>1</v>
+      </c>
+      <c r="E858">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5">
+      <c r="A859" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B859">
+        <v>2</v>
+      </c>
+      <c r="C859">
+        <v>2</v>
+      </c>
+      <c r="D859">
+        <v>1</v>
+      </c>
+      <c r="E859">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5">
+      <c r="A860" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B860">
+        <v>2</v>
+      </c>
+      <c r="C860">
+        <v>2</v>
+      </c>
+      <c r="D860">
+        <v>0</v>
+      </c>
+      <c r="E860">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5">
+      <c r="A861" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B861">
+        <v>2</v>
+      </c>
+      <c r="C861">
+        <v>2</v>
+      </c>
+      <c r="D861">
+        <v>1</v>
+      </c>
+      <c r="E861">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5">
+      <c r="A862" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B862">
+        <v>2</v>
+      </c>
+      <c r="C862">
+        <v>3</v>
+      </c>
+      <c r="D862">
+        <v>0</v>
+      </c>
+      <c r="E862">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5">
+      <c r="A863" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B863">
+        <v>2</v>
+      </c>
+      <c r="C863">
+        <v>2</v>
+      </c>
+      <c r="D863">
+        <v>0</v>
+      </c>
+      <c r="E863">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5">
+      <c r="A864" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B864">
+        <v>2</v>
+      </c>
+      <c r="C864">
+        <v>2</v>
+      </c>
+      <c r="D864">
+        <v>0</v>
+      </c>
+      <c r="E864">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5">
+      <c r="A865" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B865">
+        <v>2</v>
+      </c>
+      <c r="C865">
+        <v>3</v>
+      </c>
+      <c r="D865">
+        <v>0</v>
+      </c>
+      <c r="E865">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5">
+      <c r="A866" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B866">
+        <v>1</v>
+      </c>
+      <c r="C866">
+        <v>2</v>
+      </c>
+      <c r="D866">
+        <v>1</v>
+      </c>
+      <c r="E866">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5">
+      <c r="A867" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B867">
+        <v>2</v>
+      </c>
+      <c r="C867">
+        <v>2</v>
+      </c>
+      <c r="D867">
+        <v>1</v>
+      </c>
+      <c r="E867">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5">
+      <c r="A868" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B868">
+        <v>1</v>
+      </c>
+      <c r="C868">
+        <v>2</v>
+      </c>
+      <c r="D868">
+        <v>1</v>
+      </c>
+      <c r="E868">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5">
+      <c r="A869" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B869">
+        <v>2</v>
+      </c>
+      <c r="C869">
+        <v>2</v>
+      </c>
+      <c r="D869">
+        <v>1</v>
+      </c>
+      <c r="E869">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5">
+      <c r="A870" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B870">
+        <v>2</v>
+      </c>
+      <c r="C870">
+        <v>3</v>
+      </c>
+      <c r="D870">
+        <v>1</v>
+      </c>
+      <c r="E870">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5">
+      <c r="A871" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B871">
+        <v>1</v>
+      </c>
+      <c r="C871">
+        <v>3</v>
+      </c>
+      <c r="D871">
+        <v>0</v>
+      </c>
+      <c r="E871">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5">
+      <c r="A872" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B872">
+        <v>1</v>
+      </c>
+      <c r="C872">
+        <v>3</v>
+      </c>
+      <c r="D872">
+        <v>1</v>
+      </c>
+      <c r="E872">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5">
+      <c r="A873" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B873">
+        <v>1</v>
+      </c>
+      <c r="C873">
+        <v>2</v>
+      </c>
+      <c r="D873">
+        <v>1</v>
+      </c>
+      <c r="E873">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5">
+      <c r="A874" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B874">
+        <v>1</v>
+      </c>
+      <c r="C874">
+        <v>2</v>
+      </c>
+      <c r="D874">
+        <v>0</v>
+      </c>
+      <c r="E874">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5">
+      <c r="A875" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B875">
+        <v>1</v>
+      </c>
+      <c r="C875">
+        <v>2</v>
+      </c>
+      <c r="D875">
+        <v>1</v>
+      </c>
+      <c r="E875">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5">
+      <c r="A876" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B876">
+        <v>2</v>
+      </c>
+      <c r="C876">
+        <v>3</v>
+      </c>
+      <c r="D876">
+        <v>0</v>
+      </c>
+      <c r="E876">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5">
+      <c r="A877" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B877">
+        <v>1</v>
+      </c>
+      <c r="C877">
+        <v>2</v>
+      </c>
+      <c r="D877">
+        <v>0</v>
+      </c>
+      <c r="E877">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5">
+      <c r="A878" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B878">
+        <v>2</v>
+      </c>
+      <c r="C878">
+        <v>2</v>
+      </c>
+      <c r="D878">
+        <v>1</v>
+      </c>
+      <c r="E878">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5">
+      <c r="A879" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B879">
+        <v>2</v>
+      </c>
+      <c r="C879">
+        <v>2</v>
+      </c>
+      <c r="D879">
+        <v>0</v>
+      </c>
+      <c r="E879">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5">
+      <c r="A880" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B880">
+        <v>1</v>
+      </c>
+      <c r="C880">
+        <v>2</v>
+      </c>
+      <c r="D880">
+        <v>0</v>
+      </c>
+      <c r="E880">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5">
+      <c r="A881" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B881">
+        <v>2</v>
+      </c>
+      <c r="C881">
+        <v>2</v>
+      </c>
+      <c r="D881">
+        <v>0</v>
+      </c>
+      <c r="E881">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5">
+      <c r="A882" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B882">
+        <v>2</v>
+      </c>
+      <c r="C882">
+        <v>2</v>
+      </c>
+      <c r="D882">
+        <v>0</v>
+      </c>
+      <c r="E882">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5">
+      <c r="A883" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B883">
+        <v>2</v>
+      </c>
+      <c r="C883">
+        <v>2</v>
+      </c>
+      <c r="D883">
+        <v>0</v>
+      </c>
+      <c r="E883">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5">
+      <c r="A884" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B884">
+        <v>1</v>
+      </c>
+      <c r="C884">
+        <v>2</v>
+      </c>
+      <c r="D884">
+        <v>1</v>
+      </c>
+      <c r="E884">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5">
+      <c r="A885" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B885">
+        <v>2</v>
+      </c>
+      <c r="C885">
+        <v>2</v>
+      </c>
+      <c r="D885">
+        <v>0</v>
+      </c>
+      <c r="E885">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5">
+      <c r="A886" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B886">
+        <v>2</v>
+      </c>
+      <c r="C886">
+        <v>2</v>
+      </c>
+      <c r="D886">
+        <v>0</v>
+      </c>
+      <c r="E886">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5">
+      <c r="A887" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B887">
+        <v>1</v>
+      </c>
+      <c r="C887">
+        <v>2</v>
+      </c>
+      <c r="D887">
+        <v>1</v>
+      </c>
+      <c r="E887">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5">
+      <c r="A888" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B888">
+        <v>1</v>
+      </c>
+      <c r="C888">
+        <v>2</v>
+      </c>
+      <c r="D888">
+        <v>0</v>
+      </c>
+      <c r="E888">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5">
+      <c r="A889" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B889">
+        <v>1</v>
+      </c>
+      <c r="C889">
+        <v>3</v>
+      </c>
+      <c r="D889">
+        <v>1</v>
+      </c>
+      <c r="E889">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5">
+      <c r="A890" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B890">
+        <v>2</v>
+      </c>
+      <c r="C890">
+        <v>2</v>
+      </c>
+      <c r="D890">
+        <v>1</v>
+      </c>
+      <c r="E890">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5">
+      <c r="A891" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B891">
+        <v>1</v>
+      </c>
+      <c r="C891">
+        <v>2</v>
+      </c>
+      <c r="D891">
+        <v>0</v>
+      </c>
+      <c r="E891">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5">
+      <c r="A892" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B892">
+        <v>1</v>
+      </c>
+      <c r="C892">
+        <v>2</v>
+      </c>
+      <c r="D892">
+        <v>1</v>
+      </c>
+      <c r="E892">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5">
+      <c r="A893" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B893">
+        <v>2</v>
+      </c>
+      <c r="C893">
+        <v>2</v>
+      </c>
+      <c r="D893">
+        <v>1</v>
+      </c>
+      <c r="E893">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5">
+      <c r="A894" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B894">
+        <v>2</v>
+      </c>
+      <c r="C894">
+        <v>2</v>
+      </c>
+      <c r="D894">
+        <v>0</v>
+      </c>
+      <c r="E894">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5">
+      <c r="A895" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B895">
+        <v>1</v>
+      </c>
+      <c r="C895">
+        <v>2</v>
+      </c>
+      <c r="D895">
+        <v>1</v>
+      </c>
+      <c r="E895">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5">
+      <c r="A896" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B896">
+        <v>2</v>
+      </c>
+      <c r="C896">
+        <v>2</v>
+      </c>
+      <c r="D896">
+        <v>1</v>
+      </c>
+      <c r="E896">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5">
+      <c r="A897" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B897">
+        <v>2</v>
+      </c>
+      <c r="C897">
+        <v>3</v>
+      </c>
+      <c r="D897">
+        <v>1</v>
+      </c>
+      <c r="E897">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5">
+      <c r="A898" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B898">
+        <v>2</v>
+      </c>
+      <c r="C898">
+        <v>3</v>
+      </c>
+      <c r="D898">
+        <v>0</v>
+      </c>
+      <c r="E898">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5">
+      <c r="A899" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B899">
+        <v>1</v>
+      </c>
+      <c r="C899">
+        <v>2</v>
+      </c>
+      <c r="D899">
+        <v>0</v>
+      </c>
+      <c r="E899">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5">
+      <c r="A900" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B900">
+        <v>1</v>
+      </c>
+      <c r="C900">
+        <v>2</v>
+      </c>
+      <c r="D900">
+        <v>1</v>
+      </c>
+      <c r="E900">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5">
+      <c r="A901" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B901">
+        <v>1</v>
+      </c>
+      <c r="C901">
+        <v>2</v>
+      </c>
+      <c r="D901">
+        <v>0</v>
+      </c>
+      <c r="E901">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
